--- a/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_1.04E-08_15 s_724 TPD_output Acetic acid.xlsx
+++ b/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_1.04E-08_15 s_724 TPD_output Acetic acid.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F234"/>
+  <dimension ref="A1:F210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,4662 +417,4182 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>92.40000000000001</v>
+        <v>112.4</v>
       </c>
       <c r="B2">
-        <v>28900</v>
+        <v>48989.94831906068</v>
       </c>
       <c r="C2">
-        <v>1149.653805309743</v>
+        <v>4991.112964678267</v>
       </c>
       <c r="D2">
-        <v>10675.73850558208</v>
+        <v>56565.28953858429</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5562.079589826049</v>
       </c>
       <c r="F2">
-        <v>668.3289260158422</v>
+        <v>3625.141993088499</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>92.40000000000001</v>
+        <v>115</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>44505.12965109758</v>
       </c>
       <c r="C3">
-        <v>1869.653805309743</v>
+        <v>3583.172764236981</v>
       </c>
       <c r="D3">
-        <v>10025.73850558208</v>
+        <v>47511.49188205185</v>
       </c>
       <c r="E3">
-        <v>1970</v>
+        <v>5668.197158353785</v>
       </c>
       <c r="F3">
-        <v>1108.328926015842</v>
+        <v>1584.270633254031</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>92.40000000000001</v>
+        <v>117.7</v>
       </c>
       <c r="B4">
-        <v>6900</v>
+        <v>43724.74103436674</v>
       </c>
       <c r="C4">
-        <v>3589.653805309743</v>
+        <v>3613.388709932588</v>
       </c>
       <c r="D4">
-        <v>12255.73850558208</v>
+        <v>39796.3943156528</v>
       </c>
       <c r="E4">
-        <v>2410</v>
+        <v>4088.396171824884</v>
       </c>
       <c r="F4">
-        <v>1578.328926015842</v>
+        <v>1475.288836502864</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>92.5</v>
+        <v>120</v>
       </c>
       <c r="B5">
-        <v>5896.954232791839</v>
+        <v>37326.63221270712</v>
       </c>
       <c r="C5">
-        <v>4494.71975343062</v>
+        <v>1850.980071080703</v>
       </c>
       <c r="D5">
-        <v>13119.93742530374</v>
+        <v>32806.49638872028</v>
       </c>
       <c r="E5">
-        <v>2421.836546265121</v>
+        <v>5892.26940552249</v>
       </c>
       <c r="F5">
-        <v>1449.353440131335</v>
+        <v>1478.748787418532</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>92.40000000000001</v>
+        <v>122.2</v>
       </c>
       <c r="B6">
-        <v>5500</v>
+        <v>30324.09333981537</v>
       </c>
       <c r="C6">
-        <v>3769.653805309743</v>
+        <v>3280.415286091924</v>
       </c>
       <c r="D6">
-        <v>13075.73850558208</v>
+        <v>29817.89837165438</v>
       </c>
       <c r="E6">
-        <v>2810</v>
+        <v>5132.06119427672</v>
       </c>
       <c r="F6">
-        <v>1228.328926015842</v>
+        <v>580.3191752509119</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>92.40000000000001</v>
+        <v>124.3</v>
       </c>
       <c r="B7">
-        <v>9800</v>
+        <v>20817.12441569137</v>
       </c>
       <c r="C7">
-        <v>5789.653805309743</v>
+        <v>3591.69435496631</v>
       </c>
       <c r="D7">
-        <v>12105.73850558208</v>
+        <v>24810.60026445513</v>
       </c>
       <c r="E7">
-        <v>3560</v>
+        <v>4647.771538087588</v>
       </c>
       <c r="F7">
-        <v>1448.328926015842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>92.40000000000001</v>
+        <v>126.4</v>
       </c>
       <c r="B8">
-        <v>8700</v>
+        <v>19510.15549156736</v>
       </c>
       <c r="C8">
-        <v>6659.653805309743</v>
+        <v>1932.973423840664</v>
       </c>
       <c r="D8">
-        <v>14505.73850558208</v>
+        <v>23623.30215725587</v>
       </c>
       <c r="E8">
-        <v>2820</v>
+        <v>5143.48188189844</v>
       </c>
       <c r="F8">
-        <v>1328.328926015842</v>
+        <v>339.6808247490872</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>92.40000000000001</v>
+        <v>128.5</v>
       </c>
       <c r="B9">
-        <v>5300</v>
+        <v>15303.18656744336</v>
       </c>
       <c r="C9">
-        <v>6219.653805309743</v>
+        <v>4.252492715018889</v>
       </c>
       <c r="D9">
-        <v>14455.73850558208</v>
+        <v>25396.00405005661</v>
       </c>
       <c r="E9">
-        <v>2910</v>
+        <v>5269.192225709294</v>
       </c>
       <c r="F9">
-        <v>1348.328926015842</v>
+        <v>239.3616494981752</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>92.40000000000001</v>
+        <v>130.9</v>
       </c>
       <c r="B10">
-        <v>10000</v>
+        <v>12809.50779701587</v>
       </c>
       <c r="C10">
-        <v>7459.653805309743</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>13625.73850558208</v>
+        <v>22784.80621325748</v>
       </c>
       <c r="E10">
-        <v>4130</v>
+        <v>5267.146904350277</v>
       </c>
       <c r="F10">
-        <v>1228.328926015842</v>
+        <v>404.7111634971343</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>92.40000000000001</v>
+        <v>133</v>
       </c>
       <c r="B11">
-        <v>17500</v>
+        <v>11302.53887289187</v>
       </c>
       <c r="C11">
-        <v>7379.653805309743</v>
+        <v>1601.279068874357</v>
       </c>
       <c r="D11">
-        <v>13595.73850558208</v>
+        <v>22647.50810605819</v>
       </c>
       <c r="E11">
-        <v>3720</v>
+        <v>4802.857248161145</v>
       </c>
       <c r="F11">
-        <v>1388.328926015842</v>
+        <v>684.3919882462224</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>92.40000000000001</v>
+        <v>135.2</v>
       </c>
       <c r="B12">
-        <v>11900</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>6379.653805309743</v>
+        <v>1780.714283885578</v>
       </c>
       <c r="D12">
-        <v>12955.73850558208</v>
+        <v>20888.91008899231</v>
       </c>
       <c r="E12">
-        <v>3640</v>
+        <v>4882.649036915374</v>
       </c>
       <c r="F12">
-        <v>878.3289260158422</v>
+        <v>505.9623760786044</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>92.40000000000001</v>
+        <v>137.4</v>
       </c>
       <c r="B13">
-        <v>5300</v>
+        <v>4597.461127108254</v>
       </c>
       <c r="C13">
-        <v>7399.653805309743</v>
+        <v>4760.149498896826</v>
       </c>
       <c r="D13">
-        <v>14025.73850558208</v>
+        <v>21380.31207192641</v>
       </c>
       <c r="E13">
-        <v>3840</v>
+        <v>5962.440825669603</v>
       </c>
       <c r="F13">
-        <v>588.3289260158422</v>
+        <v>1157.532763910984</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>92.5</v>
+        <v>139.7</v>
       </c>
       <c r="B14">
-        <v>14896.95423279184</v>
+        <v>3599.352305448629</v>
       </c>
       <c r="C14">
-        <v>8154.71975343062</v>
+        <v>5427.740860044916</v>
       </c>
       <c r="D14">
-        <v>27139.93742530374</v>
+        <v>22610.41414499389</v>
       </c>
       <c r="E14">
-        <v>6461.836546265114</v>
+        <v>7416.31405936721</v>
       </c>
       <c r="F14">
-        <v>849.3534401313345</v>
+        <v>880.9927148266524</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>92.8</v>
+        <v>142.3</v>
       </c>
       <c r="B15">
-        <v>18087.81693116724</v>
+        <v>3914.53363748554</v>
       </c>
       <c r="C15">
-        <v>21449.91759779328</v>
+        <v>7039.800659603656</v>
       </c>
       <c r="D15">
-        <v>66572.53418446874</v>
+        <v>24286.61648846149</v>
       </c>
       <c r="E15">
-        <v>10767.34618506047</v>
+        <v>7452.431627894932</v>
       </c>
       <c r="F15">
-        <v>26172.42698247782</v>
+        <v>1860.12135499219</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>93.2</v>
+        <v>144.7</v>
       </c>
       <c r="B16">
-        <v>36675.63386233446</v>
+        <v>19320.85486705817</v>
       </c>
       <c r="C16">
-        <v>26480.18139027681</v>
+        <v>7345.548166888639</v>
       </c>
       <c r="D16">
-        <v>68739.32986335538</v>
+        <v>27405.41865166232</v>
       </c>
       <c r="E16">
-        <v>6994.692370120934</v>
+        <v>7920.386306535916</v>
       </c>
       <c r="F16">
-        <v>7436.525038939793</v>
+        <v>3525.470868991144</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="B17">
-        <v>48651.26772466881</v>
+        <v>16222.74604539855</v>
       </c>
       <c r="C17">
-        <v>30410.70897524387</v>
+        <v>4853.139528036754</v>
       </c>
       <c r="D17">
-        <v>78822.92122112869</v>
+        <v>23925.52072472981</v>
       </c>
       <c r="E17">
-        <v>11209.38474024185</v>
+        <v>7894.259540233522</v>
       </c>
       <c r="F17">
-        <v>6534.721151863745</v>
+        <v>6818.930819906818</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>95.09999999999999</v>
+        <v>149.4</v>
       </c>
       <c r="B18">
-        <v>48717.76428537867</v>
+        <v>27029.06727497106</v>
       </c>
       <c r="C18">
-        <v>23546.43440457357</v>
+        <v>8378.887035321735</v>
       </c>
       <c r="D18">
-        <v>93199.10933806701</v>
+        <v>19454.32288793067</v>
       </c>
       <c r="E18">
-        <v>13249.58674915813</v>
+        <v>8782.214218874506</v>
       </c>
       <c r="F18">
-        <v>5255.990807134176</v>
+        <v>12214.28033390578</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>96.59999999999999</v>
+        <v>151.8</v>
       </c>
       <c r="B19">
-        <v>57872.07777725576</v>
+        <v>28735.38850454359</v>
       </c>
       <c r="C19">
-        <v>20672.42362638682</v>
+        <v>8394.634542606716</v>
       </c>
       <c r="D19">
-        <v>105472.093133892</v>
+        <v>22613.1250511315</v>
       </c>
       <c r="E19">
-        <v>15577.13494313486</v>
+        <v>10240.16889751549</v>
       </c>
       <c r="F19">
-        <v>6541.358518866584</v>
+        <v>21899.62984790474</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>99</v>
+        <v>154.4</v>
       </c>
       <c r="B20">
-        <v>64598.97936425892</v>
+        <v>41650.5698365806</v>
       </c>
       <c r="C20">
-        <v>20624.00638128802</v>
+        <v>17496.69434216543</v>
       </c>
       <c r="D20">
-        <v>105802.8672072119</v>
+        <v>26699.3273945991</v>
       </c>
       <c r="E20">
-        <v>15131.21205349763</v>
+        <v>14096.28646604321</v>
       </c>
       <c r="F20">
-        <v>10065.94685763843</v>
+        <v>35938.75848807027</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>101.5</v>
+        <v>156.7</v>
       </c>
       <c r="B21">
-        <v>68722.83518405403</v>
+        <v>44652.46101492099</v>
       </c>
       <c r="C21">
-        <v>26060.65508431009</v>
+        <v>26564.28570331354</v>
       </c>
       <c r="D21">
-        <v>104657.8402002535</v>
+        <v>31619.42946766655</v>
       </c>
       <c r="E21">
-        <v>14077.12571012552</v>
+        <v>18300.15969974082</v>
       </c>
       <c r="F21">
-        <v>9041.55971052578</v>
+        <v>56522.21843898594</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>103.7</v>
+        <v>159</v>
       </c>
       <c r="B22">
-        <v>71255.82830547362</v>
+        <v>52754.35219326137</v>
       </c>
       <c r="C22">
-        <v>25392.10594296953</v>
+        <v>36701.87706446166</v>
       </c>
       <c r="D22">
-        <v>104070.2164341301</v>
+        <v>37499.53154073403</v>
       </c>
       <c r="E22">
-        <v>14197.52972795805</v>
+        <v>22344.03293343842</v>
       </c>
       <c r="F22">
-        <v>8554.099021066644</v>
+        <v>77855.6783899016</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>106.9</v>
+        <v>161.3</v>
       </c>
       <c r="B23">
-        <v>68858.36375481136</v>
+        <v>61956.24337160175</v>
       </c>
       <c r="C23">
-        <v>24224.21628283776</v>
+        <v>50179.46842560975</v>
       </c>
       <c r="D23">
-        <v>101274.5818652233</v>
+        <v>47069.63361380151</v>
       </c>
       <c r="E23">
-        <v>14326.29920844174</v>
+        <v>27177.90616713603</v>
       </c>
       <c r="F23">
-        <v>7916.883472762449</v>
+        <v>109279.1383408173</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>109.7</v>
+        <v>163.5</v>
       </c>
       <c r="B24">
-        <v>54073.08227298176</v>
+        <v>75453.70449870988</v>
       </c>
       <c r="C24">
-        <v>22436.06283022249</v>
+        <v>71018.90364062096</v>
       </c>
       <c r="D24">
-        <v>98112.15161742995</v>
+        <v>55731.03559673564</v>
       </c>
       <c r="E24">
-        <v>13477.72250386498</v>
+        <v>33777.69795589027</v>
       </c>
       <c r="F24">
-        <v>8015.569867996273</v>
+        <v>140050.7087286497</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>112.4</v>
+        <v>165.8</v>
       </c>
       <c r="B25">
-        <v>53390.84655836043</v>
+        <v>91355.59567705027</v>
       </c>
       <c r="C25">
-        <v>18652.84342948634</v>
+        <v>84956.49500176912</v>
       </c>
       <c r="D25">
-        <v>90425.52244991488</v>
+        <v>56371.13766980312</v>
       </c>
       <c r="E25">
-        <v>13507.3092530231</v>
+        <v>29431.57118958788</v>
       </c>
       <c r="F25">
-        <v>6193.231749114608</v>
+        <v>102024.1686795653</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="B26">
-        <v>48711.65661094725</v>
+        <v>84053.05680415852</v>
       </c>
       <c r="C26">
-        <v>17164.55808062929</v>
+        <v>82225.93021678034</v>
       </c>
       <c r="D26">
-        <v>80994.6943626781</v>
+        <v>49232.53965273722</v>
       </c>
       <c r="E26">
-        <v>13555.0594559161</v>
+        <v>27261.36297834211</v>
       </c>
       <c r="F26">
-        <v>4129.869116117447</v>
+        <v>102015.7390673977</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>117.7</v>
+        <v>170.6</v>
       </c>
       <c r="B27">
-        <v>47729.42089632593</v>
+        <v>83268.23813619542</v>
       </c>
       <c r="C27">
-        <v>17111.33867989314</v>
+        <v>87177.99001633908</v>
       </c>
       <c r="D27">
-        <v>72888.06519516303</v>
+        <v>49808.74199620482</v>
       </c>
       <c r="E27">
-        <v>11914.64620507421</v>
+        <v>30777.48054686983</v>
       </c>
       <c r="F27">
-        <v>3997.530997235781</v>
+        <v>121394.8677075632</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>120</v>
+        <v>172.9</v>
       </c>
       <c r="B28">
-        <v>41159.36825053736</v>
+        <v>95970.12931453579</v>
       </c>
       <c r="C28">
-        <v>15277.85548667346</v>
+        <v>101015.5813774872</v>
       </c>
       <c r="D28">
-        <v>65564.64034876131</v>
+        <v>60388.84406927229</v>
       </c>
       <c r="E28">
-        <v>13666.88676917187</v>
+        <v>35841.35378056744</v>
       </c>
       <c r="F28">
-        <v>3981.094821892139</v>
+        <v>153778.3276584789</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>122.2</v>
+        <v>175.1</v>
       </c>
       <c r="B29">
-        <v>33992.36137195695</v>
+        <v>101267.5904416439</v>
       </c>
       <c r="C29">
-        <v>16639.30634533288</v>
+        <v>115945.0165924984</v>
       </c>
       <c r="D29">
-        <v>62257.01658263791</v>
+        <v>62430.24605220639</v>
       </c>
       <c r="E29">
-        <v>12857.2907870044</v>
+        <v>37301.14556932167</v>
       </c>
       <c r="F29">
-        <v>3063.634132433002</v>
+        <v>146539.8980463113</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>124.3</v>
+        <v>177.4</v>
       </c>
       <c r="B30">
-        <v>24328.40026058484</v>
+        <v>98569.48161998432</v>
       </c>
       <c r="C30">
-        <v>16885.69125587142</v>
+        <v>111542.6079536465</v>
       </c>
       <c r="D30">
-        <v>56945.19389679285</v>
+        <v>54030.34812527387</v>
       </c>
       <c r="E30">
-        <v>12325.85825857184</v>
+        <v>29965.01880301927</v>
       </c>
       <c r="F30">
-        <v>2465.148928858373</v>
+        <v>86363.35799722695</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>126.4</v>
+        <v>180</v>
       </c>
       <c r="B31">
-        <v>22864.43914921272</v>
+        <v>74784.66295202133</v>
       </c>
       <c r="C31">
-        <v>15162.07616640996</v>
+        <v>95554.66775320521</v>
       </c>
       <c r="D31">
-        <v>55453.37121094779</v>
+        <v>42986.55046874144</v>
       </c>
       <c r="E31">
-        <v>12774.42573013926</v>
+        <v>23551.13637154701</v>
       </c>
       <c r="F31">
-        <v>2786.663725283744</v>
+        <v>56912.4866373925</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>128.5</v>
+        <v>182.2</v>
       </c>
       <c r="B32">
-        <v>18500.47803784048</v>
+        <v>70082.12407912945</v>
       </c>
       <c r="C32">
-        <v>13168.46107694852</v>
+        <v>86244.1029682165</v>
       </c>
       <c r="D32">
-        <v>56921.54852510273</v>
+        <v>35417.95245167556</v>
       </c>
       <c r="E32">
-        <v>12852.99320170668</v>
+        <v>20660.92816030124</v>
       </c>
       <c r="F32">
-        <v>2668.178521709115</v>
+        <v>45014.05702522488</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>130.9</v>
+        <v>184.5</v>
       </c>
       <c r="B33">
-        <v>15827.37962484376</v>
+        <v>60184.01525746984</v>
       </c>
       <c r="C33">
-        <v>13090.04383184969</v>
+        <v>82481.69432936457</v>
       </c>
       <c r="D33">
-        <v>53962.32259842267</v>
+        <v>30068.05452474305</v>
       </c>
       <c r="E33">
-        <v>12797.07031206945</v>
+        <v>18114.80139399885</v>
       </c>
       <c r="F33">
-        <v>2812.766860480965</v>
+        <v>37507.51697614055</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>133</v>
+        <v>186.8</v>
       </c>
       <c r="B34">
-        <v>14163.41851347163</v>
+        <v>53885.90643581023</v>
       </c>
       <c r="C34">
-        <v>14626.42874238826</v>
+        <v>76219.28569051267</v>
       </c>
       <c r="D34">
-        <v>53520.49991257762</v>
+        <v>27258.15659781053</v>
       </c>
       <c r="E34">
-        <v>12285.63778363687</v>
+        <v>18698.67462769645</v>
       </c>
       <c r="F34">
-        <v>3074.281656906336</v>
+        <v>31430.97692705622</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>135.2</v>
+        <v>189</v>
       </c>
       <c r="B35">
-        <v>2696.411634891228</v>
+        <v>54183.36756291847</v>
       </c>
       <c r="C35">
-        <v>14737.87960104767</v>
+        <v>71878.72090552395</v>
       </c>
       <c r="D35">
-        <v>51442.87614645421</v>
+        <v>25679.55858074463</v>
       </c>
       <c r="E35">
-        <v>12316.04180146942</v>
+        <v>16488.46641645068</v>
       </c>
       <c r="F35">
-        <v>2876.820967447204</v>
+        <v>27192.54731488859</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>137.4</v>
+        <v>191.6</v>
       </c>
       <c r="B36">
-        <v>7129.404756310949</v>
+        <v>48198.54889495537</v>
       </c>
       <c r="C36">
-        <v>17649.33045970709</v>
+        <v>70770.78070508262</v>
       </c>
       <c r="D36">
-        <v>51615.25238033081</v>
+        <v>24755.76092421223</v>
       </c>
       <c r="E36">
-        <v>13346.44581930197</v>
+        <v>14434.58398497842</v>
       </c>
       <c r="F36">
-        <v>3509.360277988066</v>
+        <v>25661.67595505413</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>139.7</v>
+        <v>193.9</v>
       </c>
       <c r="B37">
-        <v>5959.352110522384</v>
+        <v>42000.44007329576</v>
       </c>
       <c r="C37">
-        <v>18245.84726648741</v>
+        <v>65058.37206623078</v>
       </c>
       <c r="D37">
-        <v>52511.82753392909</v>
+        <v>19255.86299727971</v>
       </c>
       <c r="E37">
-        <v>14748.68638339961</v>
+        <v>14438.45721867603</v>
       </c>
       <c r="F37">
-        <v>3212.924102644425</v>
+        <v>22755.13590596981</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>142.3</v>
+        <v>196.2</v>
       </c>
       <c r="B38">
-        <v>6080.162163109213</v>
+        <v>45802.33125163615</v>
       </c>
       <c r="C38">
-        <v>19777.56191763038</v>
+        <v>67705.96342737887</v>
       </c>
       <c r="D38">
-        <v>53810.99944669236</v>
+        <v>20205.96507034719</v>
       </c>
       <c r="E38">
-        <v>14726.43658629261</v>
+        <v>13022.33045237363</v>
       </c>
       <c r="F38">
-        <v>4169.561469647263</v>
+        <v>21018.59585688547</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>144.7</v>
+        <v>198.5</v>
       </c>
       <c r="B39">
-        <v>21307.06375011249</v>
+        <v>50304.22242997652</v>
       </c>
       <c r="C39">
-        <v>20009.14467253158</v>
+        <v>60553.55478852695</v>
       </c>
       <c r="D39">
-        <v>56581.77352001228</v>
+        <v>18126.06714341466</v>
       </c>
       <c r="E39">
-        <v>15140.51369665539</v>
+        <v>14666.20368607124</v>
       </c>
       <c r="F39">
-        <v>5814.149808419117</v>
+        <v>21632.05580780114</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>147</v>
+        <v>201.1</v>
       </c>
       <c r="B40">
-        <v>18037.01110432392</v>
+        <v>40619.40376201342</v>
       </c>
       <c r="C40">
-        <v>17445.66147931187</v>
+        <v>59035.61458808569</v>
       </c>
       <c r="D40">
-        <v>52768.34867361056</v>
+        <v>15132.26948688223</v>
       </c>
       <c r="E40">
-        <v>15062.75426075305</v>
+        <v>12802.32125459896</v>
       </c>
       <c r="F40">
-        <v>9087.713633075477</v>
+        <v>19121.18444796668</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>149.4</v>
+        <v>203.3</v>
       </c>
       <c r="B41">
-        <v>28663.91269132709</v>
+        <v>58116.86488912167</v>
       </c>
       <c r="C41">
-        <v>20897.24423421306</v>
+        <v>59605.04980309691</v>
       </c>
       <c r="D41">
-        <v>47949.12274693048</v>
+        <v>17083.67146981633</v>
       </c>
       <c r="E41">
-        <v>15896.83137111581</v>
+        <v>11582.11304335319</v>
       </c>
       <c r="F41">
-        <v>14462.30197184732</v>
+        <v>19552.75483579906</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>151.8</v>
+        <v>205.6</v>
       </c>
       <c r="B42">
-        <v>30190.81427833036</v>
+        <v>66818.75606746206</v>
       </c>
       <c r="C42">
-        <v>20838.82698911426</v>
+        <v>57932.64116424505</v>
       </c>
       <c r="D42">
-        <v>50759.89682025043</v>
+        <v>17733.77354288381</v>
       </c>
       <c r="E42">
-        <v>17300.90848147858</v>
+        <v>12385.9862770508</v>
       </c>
       <c r="F42">
-        <v>24126.89031061918</v>
+        <v>18236.21478671473</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>154.4</v>
+        <v>207.9</v>
       </c>
       <c r="B43">
-        <v>42911.62433091718</v>
+        <v>67820.64724580232</v>
       </c>
       <c r="C43">
-        <v>29860.54164025721</v>
+        <v>58000.23252539314</v>
       </c>
       <c r="D43">
-        <v>54469.06873301366</v>
+        <v>15883.87561595129</v>
       </c>
       <c r="E43">
-        <v>21098.65868437158</v>
+        <v>12739.8595107484</v>
       </c>
       <c r="F43">
-        <v>38143.52767762202</v>
+        <v>16619.6747376304</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>156.7</v>
+        <v>210.1</v>
       </c>
       <c r="B44">
-        <v>45741.57168512863</v>
+        <v>82618.10837291057</v>
       </c>
       <c r="C44">
-        <v>38857.05844703753</v>
+        <v>56219.66774040437</v>
       </c>
       <c r="D44">
-        <v>59055.64388661195</v>
+        <v>16915.27759888542</v>
       </c>
       <c r="E44">
-        <v>25250.89924846924</v>
+        <v>12509.65129950263</v>
       </c>
       <c r="F44">
-        <v>58707.09150227837</v>
+        <v>16221.24512546277</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>159</v>
+        <v>212.4</v>
       </c>
       <c r="B45">
-        <v>53671.51903934006</v>
+        <v>98619.99955125095</v>
       </c>
       <c r="C45">
-        <v>48923.57525381785</v>
+        <v>54387.25910155251</v>
       </c>
       <c r="D45">
-        <v>64602.21904021021</v>
+        <v>16305.3796719529</v>
       </c>
       <c r="E45">
-        <v>29243.1398125669</v>
+        <v>11463.52453320024</v>
       </c>
       <c r="F45">
-        <v>80020.65532693474</v>
+        <v>16324.70507637845</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>161.3</v>
+        <v>215</v>
       </c>
       <c r="B46">
-        <v>62701.4663935515</v>
+        <v>114835.1808832879</v>
       </c>
       <c r="C46">
-        <v>62330.09206059814</v>
+        <v>53939.31890111126</v>
       </c>
       <c r="D46">
-        <v>73838.79419380848</v>
+        <v>14181.58201542047</v>
       </c>
       <c r="E46">
-        <v>34025.38037666454</v>
+        <v>12689.64210172798</v>
       </c>
       <c r="F46">
-        <v>111424.2191515911</v>
+        <v>15423.83371654398</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>163.5</v>
+        <v>217</v>
       </c>
       <c r="B47">
-        <v>76034.45951497121</v>
+        <v>147823.7819079317</v>
       </c>
       <c r="C47">
-        <v>83101.54291925755</v>
+        <v>49842.44182384868</v>
       </c>
       <c r="D47">
-        <v>82181.17042768509</v>
+        <v>13745.58381808786</v>
       </c>
       <c r="E47">
-        <v>40575.7843944971</v>
+        <v>12101.27100059545</v>
       </c>
       <c r="F47">
-        <v>142176.758462132</v>
+        <v>15291.62497820978</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>165.8</v>
+        <v>219.6</v>
       </c>
       <c r="B48">
-        <v>91764.40686918265</v>
+        <v>164638.9632399686</v>
       </c>
       <c r="C48">
-        <v>96968.05972603787</v>
+        <v>53124.50162340743</v>
       </c>
       <c r="D48">
-        <v>82487.74558128335</v>
+        <v>14481.78616155543</v>
       </c>
       <c r="E48">
-        <v>36178.02495859474</v>
+        <v>10617.38856912319</v>
       </c>
       <c r="F48">
-        <v>104130.3222867883</v>
+        <v>14850.75361837532</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>168</v>
+        <v>221.9</v>
       </c>
       <c r="B49">
-        <v>84297.39999060225</v>
+        <v>186940.854418309</v>
       </c>
       <c r="C49">
-        <v>94169.51058469732</v>
+        <v>52392.09298455557</v>
       </c>
       <c r="D49">
-        <v>75030.12181515998</v>
+        <v>11981.88823462291</v>
       </c>
       <c r="E49">
-        <v>33958.42897642729</v>
+        <v>10101.26180282079</v>
       </c>
       <c r="F49">
-        <v>104102.8615973292</v>
+        <v>14354.21356929099</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>170.6</v>
+        <v>224.1</v>
       </c>
       <c r="B50">
-        <v>83318.21004318909</v>
+        <v>230838.3155454173</v>
       </c>
       <c r="C50">
-        <v>99041.22523584026</v>
+        <v>51411.52819956679</v>
       </c>
       <c r="D50">
-        <v>75229.29372792321</v>
+        <v>13293.29021755701</v>
       </c>
       <c r="E50">
-        <v>37416.17917932029</v>
+        <v>11471.05359157502</v>
       </c>
       <c r="F50">
-        <v>123459.498964332</v>
+        <v>14195.78395712337</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>172.9</v>
+        <v>226.8</v>
       </c>
       <c r="B51">
-        <v>95848.15739740053</v>
+        <v>260157.9269286863</v>
       </c>
       <c r="C51">
-        <v>112807.7420426206</v>
+        <v>47871.7441452624</v>
       </c>
       <c r="D51">
-        <v>85475.86888152151</v>
+        <v>13158.19265115796</v>
       </c>
       <c r="E51">
-        <v>42428.41974341795</v>
+        <v>10721.25260504612</v>
       </c>
       <c r="F51">
-        <v>155823.0627889884</v>
+        <v>13576.80216037219</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>175.1</v>
+        <v>229</v>
       </c>
       <c r="B52">
-        <v>100981.1505188202</v>
+        <v>288355.3880557945</v>
       </c>
       <c r="C52">
-        <v>127669.19290128</v>
+        <v>47891.17936027361</v>
       </c>
       <c r="D52">
-        <v>87198.24511539811</v>
+        <v>12669.59463409208</v>
       </c>
       <c r="E52">
-        <v>43838.82376125048</v>
+        <v>9451.044393800366</v>
       </c>
       <c r="F52">
-        <v>148565.6020995292</v>
+        <v>13098.37254820458</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>177.4</v>
+        <v>231.3</v>
       </c>
       <c r="B53">
-        <v>98111.09787303169</v>
+        <v>330157.2792341349</v>
       </c>
       <c r="C53">
-        <v>123195.7097080603</v>
+        <v>45468.7707214217</v>
       </c>
       <c r="D53">
-        <v>78464.82026899637</v>
+        <v>13179.69670715956</v>
       </c>
       <c r="E53">
-        <v>36451.06432534815</v>
+        <v>9374.917627497973</v>
       </c>
       <c r="F53">
-        <v>88369.16592418561</v>
+        <v>12471.83249912024</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>180</v>
+        <v>233.6</v>
       </c>
       <c r="B54">
-        <v>74131.90792561851</v>
+        <v>369759.1704124753</v>
       </c>
       <c r="C54">
-        <v>107127.4243592033</v>
+        <v>46006.36208256985</v>
       </c>
       <c r="D54">
-        <v>67043.99218175962</v>
+        <v>10939.79878022704</v>
       </c>
       <c r="E54">
-        <v>29978.81452824114</v>
+        <v>9248.790861195581</v>
       </c>
       <c r="F54">
-        <v>58895.80329118844</v>
+        <v>11845.29245003591</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>182.2</v>
+        <v>235.5</v>
       </c>
       <c r="B55">
-        <v>69264.9010470381</v>
+        <v>408143.3413858869</v>
       </c>
       <c r="C55">
-        <v>97748.87521786269</v>
+        <v>45331.32885917041</v>
       </c>
       <c r="D55">
-        <v>59156.36841563622</v>
+        <v>9705.100492761048</v>
       </c>
       <c r="E55">
-        <v>27039.21854607368</v>
+        <v>8896.338315119679</v>
       </c>
       <c r="F55">
-        <v>46978.3426017293</v>
+        <v>12021.19414861842</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>184.5</v>
+        <v>238.2</v>
       </c>
       <c r="B56">
-        <v>59194.84840124953</v>
+        <v>447262.9527691561</v>
       </c>
       <c r="C56">
-        <v>93915.39202464301</v>
+        <v>43821.54480486603</v>
       </c>
       <c r="D56">
-        <v>53472.94356923451</v>
+        <v>8880.002926362002</v>
       </c>
       <c r="E56">
-        <v>24441.45911017134</v>
+        <v>9816.537328590794</v>
       </c>
       <c r="F56">
-        <v>39451.90642638566</v>
+        <v>11062.21235186724</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>186.8</v>
+        <v>240.4</v>
       </c>
       <c r="B57">
-        <v>52724.79575546097</v>
+        <v>489860.4138962642</v>
       </c>
       <c r="C57">
-        <v>87581.90883142332</v>
+        <v>41900.9800198773</v>
       </c>
       <c r="D57">
-        <v>50329.51872283276</v>
+        <v>9671.4049092961</v>
       </c>
       <c r="E57">
-        <v>24973.699674269</v>
+        <v>8976.329117345023</v>
       </c>
       <c r="F57">
-        <v>33355.47025104202</v>
+        <v>10763.78273969962</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>189</v>
+        <v>242.7</v>
       </c>
       <c r="B58">
-        <v>52857.78887688069</v>
+        <v>510162.3050746046</v>
       </c>
       <c r="C58">
-        <v>83173.35969008277</v>
+        <v>43738.57138102539</v>
       </c>
       <c r="D58">
-        <v>48431.89495670937</v>
+        <v>8011.506982363579</v>
       </c>
       <c r="E58">
-        <v>22714.10369210153</v>
+        <v>7650.20235104263</v>
       </c>
       <c r="F58">
-        <v>29098.00956158289</v>
+        <v>9607.242690615292</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>191.6</v>
+        <v>245.3</v>
       </c>
       <c r="B59">
-        <v>46678.59892946752</v>
+        <v>551877.4864066414</v>
       </c>
       <c r="C59">
-        <v>81985.07434122571</v>
+        <v>40720.63118058413</v>
       </c>
       <c r="D59">
-        <v>47131.06686947263</v>
+        <v>8437.709325831151</v>
       </c>
       <c r="E59">
-        <v>20601.85389499453</v>
+        <v>7996.319919570351</v>
       </c>
       <c r="F59">
-        <v>27544.64692858572</v>
+        <v>9966.37133078083</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>193.9</v>
+        <v>247.6</v>
       </c>
       <c r="B60">
-        <v>40308.54628367897</v>
+        <v>593779.3775849818</v>
       </c>
       <c r="C60">
-        <v>76201.59114800603</v>
+        <v>40608.22254173222</v>
       </c>
       <c r="D60">
-        <v>41297.64202307092</v>
+        <v>8027.81139889863</v>
       </c>
       <c r="E60">
-        <v>20554.09445909219</v>
+        <v>7850.193153267958</v>
       </c>
       <c r="F60">
-        <v>24618.21075324209</v>
+        <v>9689.831281696497</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>196.2</v>
+        <v>249.8</v>
       </c>
       <c r="B61">
-        <v>43938.49363789039</v>
+        <v>618576.8387120899</v>
       </c>
       <c r="C61">
-        <v>78778.10795478635</v>
+        <v>40017.65775674344</v>
       </c>
       <c r="D61">
-        <v>41914.21717666918</v>
+        <v>6509.213381832757</v>
       </c>
       <c r="E61">
-        <v>19086.33502318985</v>
+        <v>7489.984942022187</v>
       </c>
       <c r="F61">
-        <v>22861.77457789844</v>
+        <v>8671.401669528877</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>198.5</v>
+        <v>252.1</v>
       </c>
       <c r="B62">
-        <v>48268.44099210182</v>
+        <v>642778.7298904303</v>
       </c>
       <c r="C62">
-        <v>71554.62476156667</v>
+        <v>37145.24911789158</v>
       </c>
       <c r="D62">
-        <v>39500.79233026743</v>
+        <v>7179.315454900236</v>
       </c>
       <c r="E62">
-        <v>20678.5755872875</v>
+        <v>6643.858175719794</v>
       </c>
       <c r="F62">
-        <v>23455.3384025548</v>
+        <v>7874.861620444546</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>201.1</v>
+        <v>254.7</v>
       </c>
       <c r="B63">
-        <v>38389.25104468866</v>
+        <v>671793.9112224674</v>
       </c>
       <c r="C63">
-        <v>69956.33941270961</v>
+        <v>35387.30891745027</v>
       </c>
       <c r="D63">
-        <v>36129.9642430307</v>
+        <v>8995.5177983678</v>
       </c>
       <c r="E63">
-        <v>18756.3257901805</v>
+        <v>6529.97574424753</v>
       </c>
       <c r="F63">
-        <v>20921.97576955764</v>
+        <v>8113.990260610086</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>203.3</v>
+        <v>257</v>
       </c>
       <c r="B64">
-        <v>55722.24416610837</v>
+        <v>685295.8024008079</v>
       </c>
       <c r="C64">
-        <v>70457.790271369</v>
+        <v>33224.90027859841</v>
       </c>
       <c r="D64">
-        <v>37762.34047690729</v>
+        <v>4915.619871435287</v>
       </c>
       <c r="E64">
-        <v>17486.72980801305</v>
+        <v>6483.848977945137</v>
       </c>
       <c r="F64">
-        <v>21334.5150800985</v>
+        <v>7527.45021152576</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>205.6</v>
+        <v>259.2</v>
       </c>
       <c r="B65">
-        <v>64252.19152031982</v>
+        <v>705493.2635279159</v>
       </c>
       <c r="C65">
-        <v>68714.30707814932</v>
+        <v>34394.33549360964</v>
       </c>
       <c r="D65">
-        <v>38078.91563050558</v>
+        <v>4947.021854369414</v>
       </c>
       <c r="E65">
-        <v>18238.97037211071</v>
+        <v>6693.640766699366</v>
       </c>
       <c r="F65">
-        <v>19998.07890475486</v>
+        <v>6299.020599358133</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>207.9</v>
+        <v>261.5</v>
       </c>
       <c r="B66">
-        <v>65082.13887453126</v>
+        <v>702595.1547062563</v>
       </c>
       <c r="C66">
-        <v>68710.82388492965</v>
+        <v>34361.92685475772</v>
       </c>
       <c r="D66">
-        <v>35895.49078410384</v>
+        <v>5787.123927436864</v>
       </c>
       <c r="E66">
-        <v>18541.21093620835</v>
+        <v>7077.514000396973</v>
       </c>
       <c r="F66">
-        <v>18361.64272941122</v>
+        <v>6472.480550273807</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>210.1</v>
+        <v>263.8</v>
       </c>
       <c r="B67">
-        <v>79715.13199595085</v>
+        <v>710597.0458845968</v>
       </c>
       <c r="C67">
-        <v>66862.27474358909</v>
+        <v>31899.51821590583</v>
       </c>
       <c r="D67">
-        <v>36607.86701798044</v>
+        <v>7547.226000504372</v>
       </c>
       <c r="E67">
-        <v>18261.6149540409</v>
+        <v>6321.387234094579</v>
       </c>
       <c r="F67">
-        <v>17944.18203995208</v>
+        <v>6215.940501189474</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>212.4</v>
+        <v>266.4</v>
       </c>
       <c r="B68">
-        <v>95545.0793501623</v>
+        <v>702012.2272166336</v>
       </c>
       <c r="C68">
-        <v>64958.79155036938</v>
+        <v>28321.57801546458</v>
       </c>
       <c r="D68">
-        <v>35664.44217157872</v>
+        <v>5893.428343971944</v>
       </c>
       <c r="E68">
-        <v>17163.85551813855</v>
+        <v>6157.504802622317</v>
       </c>
       <c r="F68">
-        <v>18027.74586460844</v>
+        <v>6145.069141355008</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>215</v>
+        <v>268.7</v>
       </c>
       <c r="B69">
-        <v>111565.8894027491</v>
+        <v>680114.118394974</v>
       </c>
       <c r="C69">
-        <v>64430.50620151235</v>
+        <v>27189.16937661269</v>
       </c>
       <c r="D69">
-        <v>33163.61408434199</v>
+        <v>4463.530417039423</v>
       </c>
       <c r="E69">
-        <v>18331.60572103155</v>
+        <v>6381.378036319922</v>
       </c>
       <c r="F69">
-        <v>17104.38323161128</v>
+        <v>5398.529092270681</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="B70">
-        <v>144404.9740585852</v>
+        <v>638916.0095733145</v>
       </c>
       <c r="C70">
-        <v>60271.82516393001</v>
+        <v>26486.76073776078</v>
       </c>
       <c r="D70">
-        <v>32437.59247877527</v>
+        <v>4593.632490106902</v>
       </c>
       <c r="E70">
-        <v>17698.33664633387</v>
+        <v>4635.251270017514</v>
       </c>
       <c r="F70">
-        <v>16954.87351392116</v>
+        <v>5321.989043186355</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>219.6</v>
+        <v>273.3</v>
       </c>
       <c r="B71">
-        <v>161025.7841111721</v>
+        <v>595517.9007516548</v>
       </c>
       <c r="C71">
-        <v>63473.53981507297</v>
+        <v>28754.35209890889</v>
       </c>
       <c r="D71">
-        <v>32796.76439153854</v>
+        <v>4733.734563174381</v>
       </c>
       <c r="E71">
-        <v>16156.08684922687</v>
+        <v>5699.12450371512</v>
       </c>
       <c r="F71">
-        <v>16491.510880924</v>
+        <v>5155.44899410202</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>221.9</v>
+        <v>275.5</v>
       </c>
       <c r="B72">
-        <v>183155.7314653835</v>
+        <v>549315.361878763</v>
       </c>
       <c r="C72">
-        <v>62670.05662185328</v>
+        <v>23643.78731392015</v>
       </c>
       <c r="D72">
-        <v>29963.33954513679</v>
+        <v>5795.136546108479</v>
       </c>
       <c r="E72">
-        <v>15588.32741332451</v>
+        <v>4628.916292469365</v>
       </c>
       <c r="F72">
-        <v>15975.07470558035</v>
+        <v>4337.019381934404</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>224.1</v>
+        <v>277.8</v>
       </c>
       <c r="B73">
-        <v>226888.7245868031</v>
+        <v>498317.2530571033</v>
       </c>
       <c r="C73">
-        <v>61621.5074805127</v>
+        <v>23011.37867506823</v>
       </c>
       <c r="D73">
-        <v>30955.71577901339</v>
+        <v>5545.238619175958</v>
       </c>
       <c r="E73">
-        <v>16908.73143115706</v>
+        <v>5242.789526166971</v>
       </c>
       <c r="F73">
-        <v>15797.61401612122</v>
+        <v>4650.479332850069</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>226.8</v>
+        <v>280</v>
       </c>
       <c r="B74">
-        <v>256006.4888721818</v>
+        <v>469314.7141842115</v>
       </c>
       <c r="C74">
-        <v>57998.28807977655</v>
+        <v>24360.81389007948</v>
       </c>
       <c r="D74">
-        <v>30429.08661149832</v>
+        <v>7866.640602110085</v>
       </c>
       <c r="E74">
-        <v>16098.31818031517</v>
+        <v>4922.581314921201</v>
       </c>
       <c r="F74">
-        <v>15155.27589723955</v>
+        <v>4252.049720682449</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>229</v>
+        <v>282.6</v>
       </c>
       <c r="B75">
-        <v>284039.4819936014</v>
+        <v>431029.8955162485</v>
       </c>
       <c r="C75">
-        <v>57949.73893843597</v>
+        <v>25142.8736896382</v>
       </c>
       <c r="D75">
-        <v>29621.46284537492</v>
+        <v>8712.842945577657</v>
       </c>
       <c r="E75">
-        <v>14778.72219814771</v>
+        <v>3358.698883448923</v>
       </c>
       <c r="F75">
-        <v>14657.81520778042</v>
+        <v>3751.178360847987</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>231.3</v>
+        <v>284.9</v>
       </c>
       <c r="B76">
-        <v>325669.4293478128</v>
+        <v>414331.7866945889</v>
       </c>
       <c r="C76">
-        <v>55456.25574521629</v>
+        <v>25000.46505078631</v>
       </c>
       <c r="D76">
-        <v>29798.0379989732</v>
+        <v>6892.945018645136</v>
       </c>
       <c r="E76">
-        <v>14650.96276224537</v>
+        <v>4812.572117146529</v>
       </c>
       <c r="F76">
-        <v>14011.37903243677</v>
+        <v>3574.638311763652</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>233.6</v>
+        <v>287.2</v>
       </c>
       <c r="B77">
-        <v>365099.3767020243</v>
+        <v>390233.6778729293</v>
       </c>
       <c r="C77">
-        <v>55922.7725519966</v>
+        <v>25208.05641193443</v>
       </c>
       <c r="D77">
-        <v>27224.61315257146</v>
+        <v>8573.047091712615</v>
       </c>
       <c r="E77">
-        <v>14473.20332634303</v>
+        <v>4036.445350844136</v>
       </c>
       <c r="F77">
-        <v>13364.94285709313</v>
+        <v>3288.098262679325</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>235.5</v>
+        <v>289.5</v>
       </c>
       <c r="B78">
-        <v>403341.5071250686</v>
+        <v>373935.5690512697</v>
       </c>
       <c r="C78">
-        <v>55189.02556629336</v>
+        <v>22445.64777308251</v>
       </c>
       <c r="D78">
-        <v>25714.39262728308</v>
+        <v>8723.149164780094</v>
       </c>
       <c r="E78">
-        <v>14078.09770538022</v>
+        <v>3780.318584541742</v>
       </c>
       <c r="F78">
-        <v>13524.40862528752</v>
+        <v>3031.55821359499</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>238.2</v>
+        <v>292.2</v>
       </c>
       <c r="B79">
-        <v>442259.2714104473</v>
+        <v>363655.1804345388</v>
       </c>
       <c r="C79">
-        <v>53595.80616555722</v>
+        <v>27975.86371877812</v>
       </c>
       <c r="D79">
-        <v>24497.763459768</v>
+        <v>6148.051598381047</v>
       </c>
       <c r="E79">
-        <v>14937.68445453834</v>
+        <v>3680.517598012856</v>
       </c>
       <c r="F79">
-        <v>12542.07050640585</v>
+        <v>3252.576416843816</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>240.4</v>
+        <v>294.5</v>
       </c>
       <c r="B80">
-        <v>484692.2645318667</v>
+        <v>351257.0716128792</v>
       </c>
       <c r="C80">
-        <v>51607.25702421663</v>
+        <v>26253.45507992624</v>
       </c>
       <c r="D80">
-        <v>24970.1396936446</v>
+        <v>8198.153671448526</v>
       </c>
       <c r="E80">
-        <v>14048.08847237087</v>
+        <v>2214.390831710461</v>
       </c>
       <c r="F80">
-        <v>12224.60981694671</v>
+        <v>2936.036367759485</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>242.7</v>
+        <v>296.7</v>
       </c>
       <c r="B81">
-        <v>504822.2118860783</v>
+        <v>335954.5327399873</v>
       </c>
       <c r="C81">
-        <v>53373.77383099695</v>
+        <v>26282.89029493746</v>
       </c>
       <c r="D81">
-        <v>22976.71484724286</v>
+        <v>7719.555654382624</v>
       </c>
       <c r="E81">
-        <v>12670.32903646853</v>
+        <v>3924.182620464691</v>
       </c>
       <c r="F81">
-        <v>11048.17364160307</v>
+        <v>2687.606755591865</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>245.3</v>
+        <v>299</v>
       </c>
       <c r="B82">
-        <v>546343.0219386652</v>
+        <v>318256.4239183277</v>
       </c>
       <c r="C82">
-        <v>50275.4884821399</v>
+        <v>31710.48165608558</v>
       </c>
       <c r="D82">
-        <v>23025.88676000612</v>
+        <v>8469.657727450103</v>
       </c>
       <c r="E82">
-        <v>12958.07923936153</v>
+        <v>2788.055854162298</v>
       </c>
       <c r="F82">
-        <v>11384.81100860591</v>
+        <v>2791.06670650753</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>247.6</v>
+        <v>301.3</v>
       </c>
       <c r="B83">
-        <v>588072.9692928768</v>
+        <v>306758.3150966681</v>
       </c>
       <c r="C83">
-        <v>50092.00528892022</v>
+        <v>32438.07301723366</v>
       </c>
       <c r="D83">
-        <v>22282.46191360441</v>
+        <v>7539.759800517582</v>
       </c>
       <c r="E83">
-        <v>12760.31980345919</v>
+        <v>3081.929087859904</v>
       </c>
       <c r="F83">
-        <v>11088.37483326227</v>
+        <v>3184.526657423206</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>249.8</v>
+        <v>303.8</v>
       </c>
       <c r="B84">
-        <v>612705.9624142962</v>
+        <v>307269.0663774728</v>
       </c>
       <c r="C84">
-        <v>49433.45614757967</v>
+        <v>33701.97667065554</v>
       </c>
       <c r="D84">
-        <v>20444.83814748101</v>
+        <v>6557.262053851802</v>
       </c>
       <c r="E84">
-        <v>12350.72382129174</v>
+        <v>3343.96521144425</v>
       </c>
       <c r="F84">
-        <v>10050.91414380313</v>
+        <v>2441.765734505452</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>252.1</v>
+        <v>306.1</v>
       </c>
       <c r="B85">
-        <v>636735.9097685078</v>
+        <v>295470.9575558132</v>
       </c>
       <c r="C85">
-        <v>46489.97295435995</v>
+        <v>35049.56803180362</v>
       </c>
       <c r="D85">
-        <v>20781.41330107927</v>
+        <v>6677.364126919281</v>
       </c>
       <c r="E85">
-        <v>11452.96438538938</v>
+        <v>4507.838445141856</v>
       </c>
       <c r="F85">
-        <v>9234.477968459492</v>
+        <v>2745.225685421117</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>254.7</v>
+        <v>308.4</v>
       </c>
       <c r="B86">
-        <v>665556.7198210947</v>
+        <v>286072.8487341536</v>
       </c>
       <c r="C86">
-        <v>44651.68760550293</v>
+        <v>37577.15939295177</v>
       </c>
       <c r="D86">
-        <v>22220.58521384254</v>
+        <v>7147.46619998676</v>
       </c>
       <c r="E86">
-        <v>11280.71458828238</v>
+        <v>3771.711678839477</v>
       </c>
       <c r="F86">
-        <v>9451.115335462331</v>
+        <v>2648.685636336786</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>257</v>
+        <v>310.7</v>
       </c>
       <c r="B87">
-        <v>678886.6671753059</v>
+        <v>271274.739912494</v>
       </c>
       <c r="C87">
-        <v>42418.20441228322</v>
+        <v>35534.75075409986</v>
       </c>
       <c r="D87">
-        <v>17807.16036744082</v>
+        <v>5097.568273054239</v>
       </c>
       <c r="E87">
-        <v>11182.95515238005</v>
+        <v>2325.584912537083</v>
       </c>
       <c r="F87">
-        <v>8844.679160118689</v>
+        <v>2852.145587252455</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>259.2</v>
+        <v>313</v>
       </c>
       <c r="B88">
-        <v>698919.6602967257</v>
+        <v>254976.6310908344</v>
       </c>
       <c r="C88">
-        <v>43519.65527094266</v>
+        <v>34532.34211524794</v>
       </c>
       <c r="D88">
-        <v>17519.53660131742</v>
+        <v>5417.670346121718</v>
       </c>
       <c r="E88">
-        <v>11343.35917021258</v>
+        <v>2569.45814623469</v>
       </c>
       <c r="F88">
-        <v>7597.218470659553</v>
+        <v>2455.605538168127</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>261.5</v>
+        <v>315.6</v>
       </c>
       <c r="B89">
-        <v>695849.6076509372</v>
+        <v>252491.8124228713</v>
       </c>
       <c r="C89">
-        <v>43416.17207772296</v>
+        <v>32814.40191480668</v>
       </c>
       <c r="D89">
-        <v>18026.11175491568</v>
+        <v>2983.872689589291</v>
       </c>
       <c r="E89">
-        <v>11675.59973431024</v>
+        <v>2685.575714762412</v>
       </c>
       <c r="F89">
-        <v>7750.78229531591</v>
+        <v>2504.734178333665</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>263.8</v>
+        <v>317.9</v>
       </c>
       <c r="B90">
-        <v>703679.5550051485</v>
+        <v>243893.7036012117</v>
       </c>
       <c r="C90">
-        <v>40882.68888450327</v>
+        <v>27781.9932759548</v>
       </c>
       <c r="D90">
-        <v>19452.68690851396</v>
+        <v>3813.97476265677</v>
       </c>
       <c r="E90">
-        <v>10867.8402984079</v>
+        <v>2139.448948460019</v>
       </c>
       <c r="F90">
-        <v>7474.34611997227</v>
+        <v>2268.194129249334</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>266.4</v>
+        <v>320.2</v>
       </c>
       <c r="B91">
-        <v>694900.3650577354</v>
+        <v>240395.594779552</v>
       </c>
       <c r="C91">
-        <v>37224.40353564622</v>
+        <v>23889.58463710292</v>
       </c>
       <c r="D91">
-        <v>17421.8588212772</v>
+        <v>5314.076835724249</v>
       </c>
       <c r="E91">
-        <v>10645.5905013009</v>
+        <v>2033.322182157625</v>
       </c>
       <c r="F91">
-        <v>7380.983486975108</v>
+        <v>2021.65408016501</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>268.7</v>
+        <v>322.5</v>
       </c>
       <c r="B92">
-        <v>672830.3124119469</v>
+        <v>239397.4859578924</v>
       </c>
       <c r="C92">
-        <v>36020.92034242654</v>
+        <v>22707.17599825103</v>
       </c>
       <c r="D92">
-        <v>15658.43397487549</v>
+        <v>4004.178908791728</v>
       </c>
       <c r="E92">
-        <v>10817.83106539855</v>
+        <v>3037.195415855231</v>
       </c>
       <c r="F92">
-        <v>6614.547311631468</v>
+        <v>2915.114031080675</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>271</v>
+        <v>324.7</v>
       </c>
       <c r="B93">
-        <v>631460.2597661582</v>
+        <v>216294.9470850006</v>
       </c>
       <c r="C93">
-        <v>35247.43714920686</v>
+        <v>19806.61121326226</v>
       </c>
       <c r="D93">
-        <v>15455.00912847374</v>
+        <v>4935.580891725855</v>
       </c>
       <c r="E93">
-        <v>9020.071629496208</v>
+        <v>2626.987204609461</v>
       </c>
       <c r="F93">
-        <v>6518.111136287826</v>
+        <v>2006.684418913055</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>273.3</v>
+        <v>327.1</v>
       </c>
       <c r="B94">
-        <v>587890.2071203698</v>
+        <v>217201.2683145732</v>
       </c>
       <c r="C94">
-        <v>37443.95395598715</v>
+        <v>16252.35872054724</v>
       </c>
       <c r="D94">
-        <v>15261.58428207203</v>
+        <v>2874.383054926686</v>
       </c>
       <c r="E94">
-        <v>10032.31219359387</v>
+        <v>2544.941883250443</v>
       </c>
       <c r="F94">
-        <v>6331.674960944183</v>
+        <v>2632.033932912009</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>275.5</v>
+        <v>329.6</v>
       </c>
       <c r="B95">
-        <v>541523.2002417892</v>
+        <v>204412.019595378</v>
       </c>
       <c r="C95">
-        <v>32265.40481464659</v>
+        <v>15796.26237396908</v>
       </c>
       <c r="D95">
-        <v>16003.96051594863</v>
+        <v>2901.885308260906</v>
       </c>
       <c r="E95">
-        <v>8912.716211426399</v>
+        <v>1746.978006834789</v>
       </c>
       <c r="F95">
-        <v>5494.214271485047</v>
+        <v>2629.273009994262</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>277.8</v>
+        <v>331.9</v>
       </c>
       <c r="B96">
-        <v>490353.1475960008</v>
+        <v>214213.9107737184</v>
       </c>
       <c r="C96">
-        <v>31561.92162142689</v>
+        <v>15993.85373511721</v>
       </c>
       <c r="D96">
-        <v>15420.53566954688</v>
+        <v>1941.987381328385</v>
       </c>
       <c r="E96">
-        <v>9474.956775524061</v>
+        <v>2260.851240532411</v>
       </c>
       <c r="F96">
-        <v>5787.778096141405</v>
+        <v>1982.732960909931</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>280</v>
+        <v>334.2</v>
       </c>
       <c r="B97">
-        <v>461186.1407174205</v>
+        <v>204415.8019520587</v>
       </c>
       <c r="C97">
-        <v>32843.37248008633</v>
+        <v>13971.44509626531</v>
       </c>
       <c r="D97">
-        <v>17422.91190342348</v>
+        <v>3352.089454395864</v>
       </c>
       <c r="E97">
-        <v>9105.360793356595</v>
+        <v>2414.724474230017</v>
       </c>
       <c r="F97">
-        <v>5370.317406682268</v>
+        <v>1836.192911825596</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>282.6</v>
+        <v>336.5</v>
       </c>
       <c r="B98">
-        <v>422706.9507700072</v>
+        <v>196317.6931303991</v>
       </c>
       <c r="C98">
-        <v>33545.08713122928</v>
+        <v>14099.0364574134</v>
       </c>
       <c r="D98">
-        <v>17892.08381618675</v>
+        <v>1692.19152746335</v>
       </c>
       <c r="E98">
-        <v>7483.110996249593</v>
+        <v>1778.597707927623</v>
       </c>
       <c r="F98">
-        <v>4846.954773685115</v>
+        <v>1989.652862741264</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>284.9</v>
+        <v>338.8</v>
       </c>
       <c r="B99">
-        <v>405836.8981242187</v>
+        <v>193719.5843087394</v>
       </c>
       <c r="C99">
-        <v>33331.6039380096</v>
+        <v>13326.62781856152</v>
       </c>
       <c r="D99">
-        <v>15738.65896978504</v>
+        <v>3212.293600530829</v>
       </c>
       <c r="E99">
-        <v>8885.351560347255</v>
+        <v>2102.470941625214</v>
       </c>
       <c r="F99">
-        <v>4650.518598341467</v>
+        <v>2403.11281365693</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>287.2</v>
+        <v>341.4</v>
       </c>
       <c r="B100">
-        <v>381566.8454784302</v>
+        <v>175934.7656407764</v>
       </c>
       <c r="C100">
-        <v>33468.12074478992</v>
+        <v>12598.68761812026</v>
       </c>
       <c r="D100">
-        <v>17085.2341233833</v>
+        <v>2978.495943998394</v>
       </c>
       <c r="E100">
-        <v>8057.592124444915</v>
+        <v>1168.588510152952</v>
       </c>
       <c r="F100">
-        <v>4344.082422997824</v>
+        <v>2052.241453822471</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>289.5</v>
+        <v>343.6</v>
       </c>
       <c r="B101">
-        <v>365096.7928326416</v>
+        <v>174832.2267678845</v>
       </c>
       <c r="C101">
-        <v>30634.63755157021</v>
+        <v>11278.12283313148</v>
       </c>
       <c r="D101">
-        <v>16901.80927698158</v>
+        <v>1329.897926932521</v>
       </c>
       <c r="E101">
-        <v>7749.832688542561</v>
+        <v>2608.380298907181</v>
       </c>
       <c r="F101">
-        <v>4067.646247654184</v>
+        <v>2213.811841654848</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>292.2</v>
+        <v>345.9</v>
       </c>
       <c r="B102">
-        <v>354614.5571180202</v>
+        <v>180034.1179462249</v>
       </c>
       <c r="C102">
-        <v>36081.41815083406</v>
+        <v>10995.7141942796</v>
       </c>
       <c r="D102">
-        <v>13935.18010946648</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>7589.419437700675</v>
+        <v>972.2535326047882</v>
       </c>
       <c r="F102">
-        <v>4265.308128772518</v>
+        <v>2217.27179257052</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>294.5</v>
+        <v>348.2</v>
       </c>
       <c r="B103">
-        <v>342044.5044722317</v>
+        <v>184636.0091245653</v>
       </c>
       <c r="C103">
-        <v>34287.93495761438</v>
+        <v>13813.30555542772</v>
       </c>
       <c r="D103">
-        <v>15651.75526306476</v>
+        <v>4280.102073067479</v>
       </c>
       <c r="E103">
-        <v>6071.660001798336</v>
+        <v>816.1267663023946</v>
       </c>
       <c r="F103">
-        <v>3928.871953428876</v>
+        <v>1940.731743486185</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>296.7</v>
+        <v>350.5</v>
       </c>
       <c r="B104">
-        <v>326577.4975936514</v>
+        <v>176637.9003029057</v>
       </c>
       <c r="C104">
-        <v>34249.3858162738</v>
+        <v>11010.8969165758</v>
       </c>
       <c r="D104">
-        <v>14854.13149694136</v>
+        <v>1740.204146134958</v>
       </c>
       <c r="E104">
-        <v>7732.064019630883</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>3661.41126396974</v>
+        <v>2384.191694401858</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>299</v>
+        <v>352.8</v>
       </c>
       <c r="B105">
-        <v>308707.4449478628</v>
+        <v>176739.7914812461</v>
       </c>
       <c r="C105">
-        <v>39605.90262305411</v>
+        <v>13238.48827772392</v>
       </c>
       <c r="D105">
-        <v>15270.70665053962</v>
+        <v>4320.306219202437</v>
       </c>
       <c r="E105">
-        <v>6544.304583728529</v>
+        <v>1913.873233697606</v>
       </c>
       <c r="F105">
-        <v>3744.975088626099</v>
+        <v>1687.651645317526</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>301.3</v>
+        <v>355.1</v>
       </c>
       <c r="B106">
-        <v>297037.3923020742</v>
+        <v>171441.6826595864</v>
       </c>
       <c r="C106">
-        <v>40262.41942983441</v>
+        <v>11576.07963887203</v>
       </c>
       <c r="D106">
-        <v>14007.28180413791</v>
+        <v>5240.408292269894</v>
       </c>
       <c r="E106">
-        <v>6786.545147826189</v>
+        <v>717.7464673952127</v>
       </c>
       <c r="F106">
-        <v>4118.538913282457</v>
+        <v>1381.111596233199</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>303.8</v>
+        <v>357.7</v>
       </c>
       <c r="B107">
-        <v>297361.2481218693</v>
+        <v>172656.8639916233</v>
       </c>
       <c r="C107">
-        <v>41449.06813285648</v>
+        <v>12488.13943843074</v>
       </c>
       <c r="D107">
-        <v>12662.25479717951</v>
+        <v>7366.610635737496</v>
       </c>
       <c r="E107">
-        <v>6992.458804454076</v>
+        <v>1543.86403592295</v>
       </c>
       <c r="F107">
-        <v>3354.151766169807</v>
+        <v>1590.240236398733</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>306.1</v>
+        <v>360</v>
       </c>
       <c r="B108">
-        <v>285391.1954760808</v>
+        <v>169258.7551699637</v>
       </c>
       <c r="C108">
-        <v>42725.58493963679</v>
+        <v>11515.73079957886</v>
       </c>
       <c r="D108">
-        <v>12448.82995077777</v>
+        <v>5496.712708804975</v>
       </c>
       <c r="E108">
-        <v>8104.699368551737</v>
+        <v>337.7372696205566</v>
       </c>
       <c r="F108">
-        <v>3637.715590826165</v>
+        <v>1343.700187314405</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>308.4</v>
+        <v>362.2</v>
       </c>
       <c r="B109">
-        <v>275821.1428302922</v>
+        <v>165856.216297072</v>
       </c>
       <c r="C109">
-        <v>45182.10174641712</v>
+        <v>9265.166014590082</v>
       </c>
       <c r="D109">
-        <v>12585.40510437603</v>
+        <v>5228.114691739072</v>
       </c>
       <c r="E109">
-        <v>7316.939932649384</v>
+        <v>1497.529058374786</v>
       </c>
       <c r="F109">
-        <v>3521.279415482519</v>
+        <v>1355.270575146782</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>310.7</v>
+        <v>364.5</v>
       </c>
       <c r="B110">
-        <v>260851.0901845036</v>
+        <v>150658.1074754124</v>
       </c>
       <c r="C110">
-        <v>43068.61855319743</v>
+        <v>12002.7573757382</v>
       </c>
       <c r="D110">
-        <v>10201.98025797432</v>
+        <v>6798.216764806552</v>
       </c>
       <c r="E110">
-        <v>5819.180496747044</v>
+        <v>831.4022920723919</v>
       </c>
       <c r="F110">
-        <v>3704.843240138876</v>
+        <v>1268.730526062454</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>313</v>
+        <v>366.8</v>
       </c>
       <c r="B111">
-        <v>244381.0375387151</v>
+        <v>146059.9986537527</v>
       </c>
       <c r="C111">
-        <v>41995.13535997772</v>
+        <v>10400.34873688631</v>
       </c>
       <c r="D111">
-        <v>10188.55541157257</v>
+        <v>9838.318837874031</v>
       </c>
       <c r="E111">
-        <v>6011.421060844705</v>
+        <v>3525.275525769998</v>
       </c>
       <c r="F111">
-        <v>3288.407064795234</v>
+        <v>1492.190476978119</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>315.6</v>
+        <v>369.1</v>
       </c>
       <c r="B112">
-        <v>241701.8475913019</v>
+        <v>151361.8898320931</v>
       </c>
       <c r="C112">
-        <v>40196.8500111207</v>
+        <v>9307.9400980344</v>
       </c>
       <c r="D112">
-        <v>7377.727324335835</v>
+        <v>8738.42091094151</v>
       </c>
       <c r="E112">
-        <v>6069.171263737704</v>
+        <v>2069.148759467605</v>
       </c>
       <c r="F112">
-        <v>3315.044431798073</v>
+        <v>1455.650427893788</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>317.9</v>
+        <v>371.7</v>
       </c>
       <c r="B113">
-        <v>232931.7949455133</v>
+        <v>146777.07116413</v>
       </c>
       <c r="C113">
-        <v>35093.36681790099</v>
+        <v>11319.99989759314</v>
       </c>
       <c r="D113">
-        <v>7874.302477934095</v>
+        <v>10784.6232544091</v>
       </c>
       <c r="E113">
-        <v>5471.411827835352</v>
+        <v>3805.266327995328</v>
       </c>
       <c r="F113">
-        <v>3058.608256454432</v>
+        <v>2094.77906805933</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>320.2</v>
+        <v>374</v>
       </c>
       <c r="B114">
-        <v>229261.7422997248</v>
+        <v>145578.9623424704</v>
       </c>
       <c r="C114">
-        <v>31129.88362468131</v>
+        <v>10887.59125874126</v>
       </c>
       <c r="D114">
-        <v>9040.877631532381</v>
+        <v>14994.72532747658</v>
       </c>
       <c r="E114">
-        <v>5313.652391933012</v>
+        <v>2749.139561692934</v>
       </c>
       <c r="F114">
-        <v>2792.172081110792</v>
+        <v>1418.239018974995</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>322.5</v>
+        <v>376.2</v>
       </c>
       <c r="B115">
-        <v>228091.6896539362</v>
+        <v>148476.4234695785</v>
       </c>
       <c r="C115">
-        <v>29876.40043146163</v>
+        <v>11827.02647375248</v>
       </c>
       <c r="D115">
-        <v>7397.452785130637</v>
+        <v>15436.12731041068</v>
       </c>
       <c r="E115">
-        <v>6265.892956030672</v>
+        <v>4988.931350447177</v>
       </c>
       <c r="F115">
-        <v>3665.735905767149</v>
+        <v>1719.809406807375</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>324.7</v>
+        <v>378.5</v>
       </c>
       <c r="B116">
-        <v>204824.6827753558</v>
+        <v>155878.3146479189</v>
       </c>
       <c r="C116">
-        <v>26907.85129012105</v>
+        <v>8644.617834900593</v>
       </c>
       <c r="D116">
-        <v>8009.829019007236</v>
+        <v>16936.22938347816</v>
       </c>
       <c r="E116">
-        <v>5806.296973863205</v>
+        <v>6932.804584144784</v>
       </c>
       <c r="F116">
-        <v>2738.275216308013</v>
+        <v>1483.269357723044</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>327.1</v>
+        <v>380.8</v>
       </c>
       <c r="B117">
-        <v>205551.5843623591</v>
+        <v>156380.2058262593</v>
       </c>
       <c r="C117">
-        <v>23279.43404502224</v>
+        <v>8972.209196048709</v>
       </c>
       <c r="D117">
-        <v>5600.603092327182</v>
+        <v>22756.33145654565</v>
       </c>
       <c r="E117">
-        <v>5670.374084225979</v>
+        <v>7556.67781784239</v>
       </c>
       <c r="F117">
-        <v>3342.863555079866</v>
+        <v>1256.729308638709</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>329.6</v>
+        <v>383.1</v>
       </c>
       <c r="B118">
-        <v>192575.4401821542</v>
+        <v>166882.0970045997</v>
       </c>
       <c r="C118">
-        <v>22746.08274804431</v>
+        <v>9299.800557196795</v>
       </c>
       <c r="D118">
-        <v>5265.576085368785</v>
+        <v>23296.43352961312</v>
       </c>
       <c r="E118">
-        <v>4816.287740853866</v>
+        <v>9400.551051539996</v>
       </c>
       <c r="F118">
-        <v>3318.476407967217</v>
+        <v>1330.189259554374</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>331.9</v>
+        <v>385.7</v>
       </c>
       <c r="B119">
-        <v>202205.3875363656</v>
+        <v>164997.2783366367</v>
       </c>
       <c r="C119">
-        <v>22872.59955482464</v>
+        <v>11811.86035675554</v>
       </c>
       <c r="D119">
-        <v>3972.151238967049</v>
+        <v>27172.6358730807</v>
       </c>
       <c r="E119">
-        <v>5278.528304951513</v>
+        <v>9986.668620067718</v>
       </c>
       <c r="F119">
-        <v>2652.040232623569</v>
+        <v>1669.317899719916</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>334.2</v>
+        <v>388</v>
       </c>
       <c r="B120">
-        <v>192235.3348905771</v>
+        <v>164699.1695149771</v>
       </c>
       <c r="C120">
-        <v>20779.11636160495</v>
+        <v>7089.451717903656</v>
       </c>
       <c r="D120">
-        <v>5048.726392565305</v>
+        <v>31822.73794614818</v>
       </c>
       <c r="E120">
-        <v>5380.768869049173</v>
+        <v>10690.54185376532</v>
       </c>
       <c r="F120">
-        <v>2485.604057279928</v>
+        <v>1402.777850635584</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>336.5</v>
+        <v>390.2</v>
       </c>
       <c r="B121">
-        <v>183965.2822447885</v>
+        <v>169396.6306420852</v>
       </c>
       <c r="C121">
-        <v>20835.63316838524</v>
+        <v>10418.88693291488</v>
       </c>
       <c r="D121">
-        <v>3055.301546163591</v>
+        <v>39284.1399290823</v>
       </c>
       <c r="E121">
-        <v>4693.009433146834</v>
+        <v>15180.33364251956</v>
       </c>
       <c r="F121">
-        <v>2619.167881936286</v>
+        <v>1334.348238467965</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>338.8</v>
+        <v>392.5</v>
       </c>
       <c r="B122">
-        <v>181195.2295989999</v>
+        <v>198398.5218204256</v>
       </c>
       <c r="C122">
-        <v>19992.14997516556</v>
+        <v>10696.47829406299</v>
       </c>
       <c r="D122">
-        <v>4241.876699761847</v>
+        <v>43564.24200214978</v>
       </c>
       <c r="E122">
-        <v>4965.249997244479</v>
+        <v>19444.20687621716</v>
       </c>
       <c r="F122">
-        <v>3012.731706592644</v>
+        <v>1357.80818938363</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>341.4</v>
+        <v>395.2</v>
       </c>
       <c r="B123">
-        <v>163216.0396515868</v>
+        <v>220818.1332036948</v>
       </c>
       <c r="C123">
-        <v>19183.86462630851</v>
+        <v>9676.694239758603</v>
       </c>
       <c r="D123">
-        <v>3631.048612525115</v>
+        <v>51019.14443575073</v>
       </c>
       <c r="E123">
-        <v>3973.000200137481</v>
+        <v>25854.40588968826</v>
       </c>
       <c r="F123">
-        <v>2639.369073595484</v>
+        <v>1378.826392632463</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>343.6</v>
+        <v>397.4</v>
       </c>
       <c r="B124">
-        <v>161949.0327730064</v>
+        <v>224915.5943308029</v>
       </c>
       <c r="C124">
-        <v>17795.31548496792</v>
+        <v>9296.12945476982</v>
       </c>
       <c r="D124">
-        <v>1663.424846401711</v>
+        <v>56220.54641868483</v>
       </c>
       <c r="E124">
-        <v>5363.404217970027</v>
+        <v>30324.19767844251</v>
       </c>
       <c r="F124">
-        <v>2781.908384136344</v>
+        <v>1510.39678046484</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>345.9</v>
+        <v>399.7</v>
       </c>
       <c r="B125">
-        <v>166978.9801272179</v>
+        <v>246517.4855091433</v>
       </c>
       <c r="C125">
-        <v>17441.83229174825</v>
+        <v>9733.720815917935</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>65540.6484917523</v>
       </c>
       <c r="E125">
-        <v>3675.644782067689</v>
+        <v>36558.07091214011</v>
       </c>
       <c r="F125">
-        <v>2765.472208792706</v>
+        <v>1933.856731380505</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>348.2</v>
+        <v>402</v>
       </c>
       <c r="B126">
-        <v>171408.9274814294</v>
+        <v>271519.3766874836</v>
       </c>
       <c r="C126">
-        <v>20188.34909852856</v>
+        <v>10251.31217706602</v>
       </c>
       <c r="D126">
-        <v>3946.575153598255</v>
+        <v>74770.75056481978</v>
       </c>
       <c r="E126">
-        <v>3467.885346165334</v>
+        <v>44611.9441458377</v>
       </c>
       <c r="F126">
-        <v>2469.036033449063</v>
+        <v>1617.316682296178</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>350.5</v>
+        <v>404.2</v>
       </c>
       <c r="B127">
-        <v>163238.8748356408</v>
+        <v>300116.8378145919</v>
       </c>
       <c r="C127">
-        <v>17314.86590530888</v>
+        <v>9500.747392077275</v>
       </c>
       <c r="D127">
-        <v>1073.150307196516</v>
+        <v>89562.15254775388</v>
       </c>
       <c r="E127">
-        <v>2600.125910262995</v>
+        <v>55041.73593459195</v>
       </c>
       <c r="F127">
-        <v>2892.599858105423</v>
+        <v>1528.887070128554</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>352.8</v>
+        <v>406.8</v>
       </c>
       <c r="B128">
-        <v>163168.8221898522</v>
+        <v>348932.0191466288</v>
       </c>
       <c r="C128">
-        <v>19471.38271208917</v>
+        <v>10962.80719163598</v>
       </c>
       <c r="D128">
-        <v>3319.725460794801</v>
+        <v>100718.3548912215</v>
       </c>
       <c r="E128">
-        <v>4462.36647436064</v>
+        <v>64087.85350311967</v>
       </c>
       <c r="F128">
-        <v>2176.16368276178</v>
+        <v>1658.015710294099</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>355.1</v>
+        <v>409.1</v>
       </c>
       <c r="B129">
-        <v>157698.7695440637</v>
+        <v>385333.9103249692</v>
       </c>
       <c r="C129">
-        <v>17737.89951886949</v>
+        <v>8830.3985527841</v>
       </c>
       <c r="D129">
-        <v>3906.300614393057</v>
+        <v>114168.4569642889</v>
       </c>
       <c r="E129">
-        <v>3214.607038458302</v>
+        <v>75491.72673681728</v>
       </c>
       <c r="F129">
-        <v>1849.727507418138</v>
+        <v>1821.475661209764</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>357.7</v>
+        <v>411.3</v>
       </c>
       <c r="B130">
-        <v>158719.5795966505</v>
+        <v>458731.3714520773</v>
       </c>
       <c r="C130">
-        <v>18569.61417001244</v>
+        <v>11389.83376779535</v>
       </c>
       <c r="D130">
-        <v>5655.472527156325</v>
+        <v>134189.8589472231</v>
       </c>
       <c r="E130">
-        <v>3982.357241351302</v>
+        <v>92791.51852557152</v>
       </c>
       <c r="F130">
-        <v>2036.364874420979</v>
+        <v>2063.046049042145</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>360</v>
+        <v>413.6</v>
       </c>
       <c r="B131">
-        <v>155149.5269508619</v>
+        <v>545433.2626304176</v>
       </c>
       <c r="C131">
-        <v>17526.13097679276</v>
+        <v>12547.42512894344</v>
       </c>
       <c r="D131">
-        <v>3452.047680754581</v>
+        <v>157989.9610202906</v>
       </c>
       <c r="E131">
-        <v>2724.597805448962</v>
+        <v>119155.3917592691</v>
       </c>
       <c r="F131">
-        <v>1769.928699077336</v>
+        <v>1646.505999957813</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>362.2</v>
+        <v>415.9</v>
       </c>
       <c r="B132">
-        <v>151582.5200722815</v>
+        <v>670135.153808758</v>
       </c>
       <c r="C132">
-        <v>15207.58183545218</v>
+        <v>12255.01649009156</v>
       </c>
       <c r="D132">
-        <v>2864.423914631209</v>
+        <v>182200.063093358</v>
       </c>
       <c r="E132">
-        <v>3835.00182328151</v>
+        <v>158829.2649929667</v>
       </c>
       <c r="F132">
-        <v>1762.4680096182</v>
+        <v>1799.965950873482</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>364.5</v>
+        <v>418.5</v>
       </c>
       <c r="B133">
-        <v>136212.4674264929</v>
+        <v>857450.3351407949</v>
       </c>
       <c r="C133">
-        <v>17874.0986422325</v>
+        <v>10267.0762896503</v>
       </c>
       <c r="D133">
-        <v>4100.999068229466</v>
+        <v>218496.2654368256</v>
       </c>
       <c r="E133">
-        <v>3117.242387379156</v>
+        <v>236125.3825614945</v>
       </c>
       <c r="F133">
-        <v>1656.031834274558</v>
+        <v>2349.09459103902</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>366.8</v>
+        <v>420.8</v>
       </c>
       <c r="B134">
-        <v>131442.4147807044</v>
+        <v>1176052.226319136</v>
       </c>
       <c r="C134">
-        <v>16200.61544901282</v>
+        <v>12264.66765079838</v>
       </c>
       <c r="D134">
-        <v>6807.574221827722</v>
+        <v>261446.3675098931</v>
       </c>
       <c r="E134">
-        <v>5759.482951476803</v>
+        <v>416439.2557951921</v>
       </c>
       <c r="F134">
-        <v>1859.595658930917</v>
+        <v>3172.554541954685</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>369.1</v>
+        <v>423</v>
       </c>
       <c r="B135">
-        <v>136572.3621349158</v>
+        <v>1917249.687446244</v>
       </c>
       <c r="C135">
-        <v>15037.13225579311</v>
+        <v>13994.10286580963</v>
       </c>
       <c r="D135">
-        <v>5374.149375426007</v>
+        <v>339617.7694928272</v>
       </c>
       <c r="E135">
-        <v>4251.723515574463</v>
+        <v>1115189.047583946</v>
       </c>
       <c r="F135">
-        <v>1803.159483587275</v>
+        <v>4574.124929787069</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>371.7</v>
+        <v>425.3</v>
       </c>
       <c r="B136">
-        <v>131793.1721875028</v>
+        <v>3789251.578624584</v>
       </c>
       <c r="C136">
-        <v>16968.84690693608</v>
+        <v>15181.69422695772</v>
       </c>
       <c r="D136">
-        <v>7043.321288189279</v>
+        <v>428417.8715658947</v>
       </c>
       <c r="E136">
-        <v>5929.473718467478</v>
+        <v>1276452.920817644</v>
       </c>
       <c r="F136">
-        <v>2419.796850590115</v>
+        <v>4667.584880702734</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>374</v>
+        <v>427.6</v>
       </c>
       <c r="B137">
-        <v>130423.1195417142</v>
+        <v>3645653.469802924</v>
       </c>
       <c r="C137">
-        <v>16465.3637137164</v>
+        <v>13839.28558810583</v>
       </c>
       <c r="D137">
-        <v>10919.89644178754</v>
+        <v>445047.9736389622</v>
       </c>
       <c r="E137">
-        <v>4821.714282565124</v>
+        <v>672696.7940513415</v>
       </c>
       <c r="F137">
-        <v>1723.360675246473</v>
+        <v>3341.044831618407</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>376.2</v>
+        <v>429.8</v>
       </c>
       <c r="B138">
-        <v>133156.1126631338</v>
+        <v>2203050.930930032</v>
       </c>
       <c r="C138">
-        <v>17336.81457237582</v>
+        <v>16128.72080311709</v>
       </c>
       <c r="D138">
-        <v>11042.27267566414</v>
+        <v>435239.3756218962</v>
       </c>
       <c r="E138">
-        <v>7012.118300397671</v>
+        <v>328156.5858400958</v>
       </c>
       <c r="F138">
-        <v>2005.899985787337</v>
+        <v>2722.615219450783</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>378.5</v>
+        <v>432.4</v>
       </c>
       <c r="B139">
-        <v>140386.0600173452</v>
+        <v>1383866.11226207</v>
       </c>
       <c r="C139">
-        <v>14083.33137915611</v>
+        <v>16720.78060267583</v>
       </c>
       <c r="D139">
-        <v>12208.84782926242</v>
+        <v>418315.5779653639</v>
       </c>
       <c r="E139">
-        <v>8904.358864495318</v>
+        <v>202392.7034086235</v>
       </c>
       <c r="F139">
-        <v>1749.463810443694</v>
+        <v>2571.743859616325</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>380.8</v>
+        <v>434.7</v>
       </c>
       <c r="B140">
-        <v>140716.0073715567</v>
+        <v>1026368.00344041</v>
       </c>
       <c r="C140">
-        <v>14339.84818593643</v>
+        <v>12898.37196382392</v>
       </c>
       <c r="D140">
-        <v>17695.42298286068</v>
+        <v>386935.6800384313</v>
       </c>
       <c r="E140">
-        <v>9476.599428592977</v>
+        <v>150606.5766423211</v>
       </c>
       <c r="F140">
-        <v>1503.027635100054</v>
+        <v>2415.20381053199</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>383.1</v>
+        <v>437</v>
       </c>
       <c r="B141">
-        <v>151045.9547257681</v>
+        <v>873069.8946187502</v>
       </c>
       <c r="C141">
-        <v>14596.36499271675</v>
+        <v>14865.96332497203</v>
       </c>
       <c r="D141">
-        <v>17901.99813645893</v>
+        <v>354675.7821114988</v>
       </c>
       <c r="E141">
-        <v>11268.83999269062</v>
+        <v>124200.4498760187</v>
       </c>
       <c r="F141">
-        <v>1556.591459756411</v>
+        <v>1728.663761447662</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>385.7</v>
+        <v>439.2</v>
       </c>
       <c r="B142">
-        <v>148966.764778355</v>
+        <v>773767.3557458584</v>
       </c>
       <c r="C142">
-        <v>17028.0796438597</v>
+        <v>13255.39853998325</v>
       </c>
       <c r="D142">
-        <v>21401.1700492222</v>
+        <v>318947.1840944329</v>
       </c>
       <c r="E142">
-        <v>11796.59019558364</v>
+        <v>105390.2416647729</v>
       </c>
       <c r="F142">
-        <v>1873.228826759252</v>
+        <v>2010.234149280039</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>388</v>
+        <v>441.9</v>
       </c>
       <c r="B143">
-        <v>148496.7121325665</v>
+        <v>706386.9671291275</v>
       </c>
       <c r="C143">
-        <v>12234.59645064002</v>
+        <v>13185.61448567886</v>
       </c>
       <c r="D143">
-        <v>25717.74520282049</v>
+        <v>285182.0865280339</v>
       </c>
       <c r="E143">
-        <v>12448.83075968128</v>
+        <v>93030.44067824403</v>
       </c>
       <c r="F143">
-        <v>1586.79265141561</v>
+        <v>1971.252352528865</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>390.2</v>
+        <v>444.1</v>
       </c>
       <c r="B144">
-        <v>153029.7052539861</v>
+        <v>633784.4282562357</v>
       </c>
       <c r="C144">
-        <v>15496.04730929946</v>
+        <v>12535.04970069008</v>
       </c>
       <c r="D144">
-        <v>32860.12143669708</v>
+        <v>250773.488510968</v>
       </c>
       <c r="E144">
-        <v>16889.23477751383</v>
+        <v>88790.23246699826</v>
       </c>
       <c r="F144">
-        <v>1499.331961956474</v>
+        <v>2032.822740361249</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>392.5</v>
+        <v>446.4</v>
       </c>
       <c r="B145">
-        <v>181859.6526081976</v>
+        <v>588386.3194345761</v>
       </c>
       <c r="C145">
-        <v>15702.56411607975</v>
+        <v>13202.6410618382</v>
       </c>
       <c r="D145">
-        <v>36806.69659029534</v>
+        <v>222953.5905840355</v>
       </c>
       <c r="E145">
-        <v>21101.47534161148</v>
+        <v>80004.10570069587</v>
       </c>
       <c r="F145">
-        <v>1502.895786612831</v>
+        <v>2176.282691276911</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>395.2</v>
+        <v>448.7</v>
       </c>
       <c r="B146">
-        <v>204077.4168935762</v>
+        <v>550188.2106129164</v>
       </c>
       <c r="C146">
-        <v>14599.3447153436</v>
+        <v>9820.232422986315</v>
       </c>
       <c r="D146">
-        <v>43870.06742278027</v>
+        <v>200593.6926571029</v>
       </c>
       <c r="E146">
-        <v>27451.06209076961</v>
+        <v>76677.97893439348</v>
       </c>
       <c r="F146">
-        <v>1500.557667731166</v>
+        <v>1849.742642192587</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>397.4</v>
+        <v>450.9</v>
       </c>
       <c r="B147">
-        <v>208010.4100149958</v>
+        <v>540385.6717400248</v>
       </c>
       <c r="C147">
-        <v>14150.79557400302</v>
+        <v>10399.66763799754</v>
       </c>
       <c r="D147">
-        <v>48752.44365665689</v>
+        <v>170465.094640037</v>
       </c>
       <c r="E147">
-        <v>31871.46610860214</v>
+        <v>69707.7707231477</v>
       </c>
       <c r="F147">
-        <v>1613.096978272029</v>
+        <v>2031.31303002496</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>399.7</v>
+        <v>453.2</v>
       </c>
       <c r="B148">
-        <v>229440.3573692073</v>
+        <v>489787.562918365</v>
       </c>
       <c r="C148">
-        <v>14517.31238078334</v>
+        <v>8367.258999145648</v>
       </c>
       <c r="D148">
-        <v>57739.01881025515</v>
+        <v>146585.1967131045</v>
       </c>
       <c r="E148">
-        <v>38053.7066726998</v>
+        <v>67221.64395684531</v>
       </c>
       <c r="F148">
-        <v>2016.660802928389</v>
+        <v>1884.772980940632</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>402</v>
+        <v>455.5</v>
       </c>
       <c r="B149">
-        <v>254270.3047234187</v>
+        <v>462289.4540967054</v>
       </c>
       <c r="C149">
-        <v>14963.82918756363</v>
+        <v>11104.85036029373</v>
       </c>
       <c r="D149">
-        <v>66635.5939638534</v>
+        <v>136655.298786172</v>
       </c>
       <c r="E149">
-        <v>46055.94723679744</v>
+        <v>63115.51719054291</v>
       </c>
       <c r="F149">
-        <v>1680.224627584746</v>
+        <v>1668.232931856301</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>404.2</v>
+        <v>458.1</v>
       </c>
       <c r="B150">
-        <v>282703.2978448384</v>
+        <v>431204.6354287424</v>
       </c>
       <c r="C150">
-        <v>14145.28004622307</v>
+        <v>10876.91015985248</v>
       </c>
       <c r="D150">
-        <v>81107.97019773004</v>
+        <v>124261.5011296396</v>
       </c>
       <c r="E150">
-        <v>56436.35125463</v>
+        <v>61961.63475907065</v>
       </c>
       <c r="F150">
-        <v>1572.763938125609</v>
+        <v>1687.361572021839</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>406.8</v>
+        <v>460.4</v>
       </c>
       <c r="B151">
-        <v>331324.1078974252</v>
+        <v>416706.5266070827</v>
       </c>
       <c r="C151">
-        <v>15526.99469736602</v>
+        <v>11804.50152100059</v>
       </c>
       <c r="D151">
-        <v>91887.1421104933</v>
+        <v>117001.603202707</v>
       </c>
       <c r="E151">
-        <v>65424.10145752299</v>
+        <v>56665.50799276825</v>
       </c>
       <c r="F151">
-        <v>1679.401305128453</v>
+        <v>1240.821522937507</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>409.1</v>
+        <v>462.7</v>
       </c>
       <c r="B152">
-        <v>367554.0552516367</v>
+        <v>394108.4177854232</v>
       </c>
       <c r="C152">
-        <v>13323.51150414634</v>
+        <v>12262.09288214871</v>
       </c>
       <c r="D152">
-        <v>105003.7172640916</v>
+        <v>112371.7052757746</v>
       </c>
       <c r="E152">
-        <v>76776.34202162063</v>
+        <v>55929.38122646586</v>
       </c>
       <c r="F152">
-        <v>1822.965129784814</v>
+        <v>2234.281473853172</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>411.3</v>
+        <v>464.9</v>
       </c>
       <c r="B153">
-        <v>440787.0483730563</v>
+        <v>367105.8789125314</v>
       </c>
       <c r="C153">
-        <v>15814.96236280575</v>
+        <v>9551.528097159935</v>
       </c>
       <c r="D153">
-        <v>124706.0934979681</v>
+        <v>103313.1072587086</v>
       </c>
       <c r="E153">
-        <v>94026.74603945318</v>
+        <v>52669.17301522008</v>
       </c>
       <c r="F153">
-        <v>2045.504440325676</v>
+        <v>1755.851861685556</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>413.6</v>
+        <v>467.2</v>
       </c>
       <c r="B154">
-        <v>527316.9957272678</v>
+        <v>359507.7700908718</v>
       </c>
       <c r="C154">
-        <v>16901.47916958607</v>
+        <v>13679.11945830802</v>
       </c>
       <c r="D154">
-        <v>148172.6686515664</v>
+        <v>102263.2093317761</v>
       </c>
       <c r="E154">
-        <v>120338.9866035508</v>
+        <v>50603.04624891768</v>
       </c>
       <c r="F154">
-        <v>1609.068264982034</v>
+        <v>1709.311812601221</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>415.9</v>
+        <v>469.5</v>
       </c>
       <c r="B155">
-        <v>651846.9430814793</v>
+        <v>348609.6612692121</v>
       </c>
       <c r="C155">
-        <v>16537.99597636639</v>
+        <v>8506.710819456137</v>
       </c>
       <c r="D155">
-        <v>172049.2438051647</v>
+        <v>95833.3114048436</v>
       </c>
       <c r="E155">
-        <v>159961.2271676485</v>
+        <v>49696.91948261529</v>
       </c>
       <c r="F155">
-        <v>1742.632089638388</v>
+        <v>2162.771763516894</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>418.5</v>
+        <v>472.1</v>
       </c>
       <c r="B156">
-        <v>838967.7531340661</v>
+        <v>326324.8426012491</v>
       </c>
       <c r="C156">
-        <v>14469.71062750934</v>
+        <v>9398.770619014875</v>
       </c>
       <c r="D156">
-        <v>207968.415717928</v>
+        <v>95629.51374831119</v>
       </c>
       <c r="E156">
-        <v>237198.9773705415</v>
+        <v>47423.03705114301</v>
       </c>
       <c r="F156">
-        <v>2269.269456641225</v>
+        <v>1721.900403682432</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>420.8</v>
+        <v>474.3</v>
       </c>
       <c r="B157">
-        <v>1157397.700488277</v>
+        <v>330322.3037283572</v>
       </c>
       <c r="C157">
-        <v>16396.22743428966</v>
+        <v>9368.205834026099</v>
       </c>
       <c r="D157">
-        <v>250584.9908715262</v>
+        <v>93170.91573124529</v>
       </c>
       <c r="E157">
-        <v>417461.2179346391</v>
+        <v>50532.82883989725</v>
       </c>
       <c r="F157">
-        <v>3072.833281297582</v>
+        <v>1573.470791514808</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>423</v>
+        <v>476.6</v>
       </c>
       <c r="B158">
-        <v>1898430.693609697</v>
+        <v>306924.1949066976</v>
       </c>
       <c r="C158">
-        <v>18057.67829294907</v>
+        <v>11245.79719517421</v>
       </c>
       <c r="D158">
-        <v>328437.3671054028</v>
+        <v>88621.01780431277</v>
       </c>
       <c r="E158">
-        <v>1116161.621952471</v>
+        <v>44266.70207359486</v>
       </c>
       <c r="F158">
-        <v>4455.372591838448</v>
+        <v>1816.930742430481</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>425.3</v>
+        <v>478.9</v>
       </c>
       <c r="B159">
-        <v>3770260.640963908</v>
+        <v>303126.086085038</v>
       </c>
       <c r="C159">
-        <v>19174.19509972939</v>
+        <v>10833.38855632233</v>
       </c>
       <c r="D159">
-        <v>416903.9422590011</v>
+        <v>84211.11987738025</v>
       </c>
       <c r="E159">
-        <v>1277373.862516569</v>
+        <v>43140.57530729246</v>
       </c>
       <c r="F159">
-        <v>4528.936416494806</v>
+        <v>2020.390693346142</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>427.6</v>
+        <v>481.1</v>
       </c>
       <c r="B160">
-        <v>3626490.58831812</v>
+        <v>298523.5472121462</v>
       </c>
       <c r="C160">
-        <v>17760.71190650971</v>
+        <v>12272.82377133358</v>
       </c>
       <c r="D160">
-        <v>433200.5174125993</v>
+        <v>85812.52186031436</v>
       </c>
       <c r="E160">
-        <v>673566.1030806671</v>
+        <v>44580.3670960467</v>
       </c>
       <c r="F160">
-        <v>3182.500241151163</v>
+        <v>1821.96108117853</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>429.8</v>
+        <v>483.5</v>
       </c>
       <c r="B161">
-        <v>2183723.581439539</v>
+        <v>282529.8684417187</v>
       </c>
       <c r="C161">
-        <v>19982.16276516913</v>
+        <v>10708.57127861853</v>
       </c>
       <c r="D161">
-        <v>423072.893646476</v>
+        <v>81641.32402351522</v>
       </c>
       <c r="E161">
-        <v>328976.5070984996</v>
+        <v>39048.32177468768</v>
       </c>
       <c r="F161">
-        <v>2545.039551692025</v>
+        <v>1457.310595177483</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>432.4</v>
+        <v>486</v>
       </c>
       <c r="B162">
-        <v>1364344.391492126</v>
+        <v>255540.6197225235</v>
       </c>
       <c r="C162">
-        <v>20493.87741631211</v>
+        <v>8112.474932040379</v>
       </c>
       <c r="D162">
-        <v>405772.0655592392</v>
+        <v>84768.82627684943</v>
       </c>
       <c r="E162">
-        <v>203154.2573013926</v>
+        <v>37200.35789827203</v>
       </c>
       <c r="F162">
-        <v>2371.676918694873</v>
+        <v>2154.549672259736</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>434.7</v>
+        <v>488</v>
       </c>
       <c r="B163">
-        <v>1006674.338846338</v>
+        <v>254929.2207471674</v>
       </c>
       <c r="C163">
-        <v>16600.3942230924</v>
+        <v>9195.597854777865</v>
       </c>
       <c r="D163">
-        <v>374058.6407128375</v>
+        <v>77652.8280795168</v>
       </c>
       <c r="E163">
-        <v>151316.4978654902</v>
+        <v>36001.98679713951</v>
       </c>
       <c r="F163">
-        <v>2195.240743351231</v>
+        <v>1572.340933925532</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>437</v>
+        <v>490.6</v>
       </c>
       <c r="B164">
-        <v>853204.2862005495</v>
+        <v>238344.4020792043</v>
       </c>
       <c r="C164">
-        <v>18496.91102987271</v>
+        <v>9337.65765433661</v>
       </c>
       <c r="D164">
-        <v>341465.2158664357</v>
+        <v>73959.03042298439</v>
       </c>
       <c r="E164">
-        <v>124858.7384295879</v>
+        <v>34778.10436566724</v>
       </c>
       <c r="F164">
-        <v>1488.804568007592</v>
+        <v>1631.46957409107</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>439.2</v>
+        <v>492.8</v>
       </c>
       <c r="B165">
-        <v>753737.2793219693</v>
+        <v>236441.8632063124</v>
       </c>
       <c r="C165">
-        <v>16818.36188853213</v>
+        <v>7027.092869347827</v>
       </c>
       <c r="D165">
-        <v>305417.5921003124</v>
+        <v>74240.43240591849</v>
       </c>
       <c r="E165">
-        <v>105999.1424474204</v>
+        <v>34267.89615442147</v>
       </c>
       <c r="F165">
-        <v>1751.343878548454</v>
+        <v>1643.03996192345</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>441.9</v>
+        <v>495.1</v>
       </c>
       <c r="B166">
-        <v>686155.0436073476</v>
+        <v>227543.7543846528</v>
       </c>
       <c r="C166">
-        <v>16665.14248779598</v>
+        <v>5374.684230495943</v>
       </c>
       <c r="D166">
-        <v>271260.9629327973</v>
+        <v>69310.53447898597</v>
       </c>
       <c r="E166">
-        <v>93578.7291965785</v>
+        <v>31481.76938811907</v>
       </c>
       <c r="F166">
-        <v>1689.005759666783</v>
+        <v>1306.499912839119</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>444.1</v>
+        <v>497</v>
       </c>
       <c r="B167">
-        <v>613388.0367287673</v>
+        <v>229027.9253580644</v>
       </c>
       <c r="C167">
-        <v>15946.5933464554</v>
+        <v>7999.651007096567</v>
       </c>
       <c r="D167">
-        <v>236533.3391666739</v>
+        <v>69895.83619151998</v>
       </c>
       <c r="E167">
-        <v>89289.13321441105</v>
+        <v>32769.31684204319</v>
       </c>
       <c r="F167">
-        <v>1731.545070207649</v>
+        <v>1722.401611421627</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>446.4</v>
+        <v>500</v>
       </c>
       <c r="B168">
-        <v>567817.9840829789</v>
+        <v>212160.8268950302</v>
       </c>
       <c r="C168">
-        <v>16543.11015323572</v>
+        <v>6954.335391202774</v>
       </c>
       <c r="D168">
-        <v>208379.9143202722</v>
+        <v>72506.83889552104</v>
       </c>
       <c r="E168">
-        <v>80451.3737785087</v>
+        <v>29201.76019034442</v>
       </c>
       <c r="F168">
-        <v>1855.108894864003</v>
+        <v>1839.088503920326</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>448.7</v>
+        <v>502.3</v>
       </c>
       <c r="B169">
-        <v>529447.9314371903</v>
+        <v>194662.7180733706</v>
       </c>
       <c r="C169">
-        <v>13089.62696001604</v>
+        <v>8581.92675235089</v>
       </c>
       <c r="D169">
-        <v>185686.4894738704</v>
+        <v>70496.94096858849</v>
       </c>
       <c r="E169">
-        <v>77073.61434260638</v>
+        <v>30335.63342404202</v>
       </c>
       <c r="F169">
-        <v>1508.67271952036</v>
+        <v>1802.548454835991</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>450.9</v>
+        <v>504.5</v>
       </c>
       <c r="B170">
-        <v>519480.9245586099</v>
+        <v>197160.1792004787</v>
       </c>
       <c r="C170">
-        <v>13601.07781867545</v>
+        <v>7571.361967362114</v>
       </c>
       <c r="D170">
-        <v>155238.8657077471</v>
+        <v>64998.34295152262</v>
       </c>
       <c r="E170">
-        <v>70054.01836043889</v>
+        <v>25965.42521279625</v>
       </c>
       <c r="F170">
-        <v>1671.212030061226</v>
+        <v>2044.118842668375</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>453.2</v>
+        <v>506.8</v>
       </c>
       <c r="B171">
-        <v>468710.8719128212</v>
+        <v>189062.0703788191</v>
       </c>
       <c r="C171">
-        <v>11497.59462545577</v>
+        <v>8308.95332851023</v>
       </c>
       <c r="D171">
-        <v>131025.4408613453</v>
+        <v>63928.4450245901</v>
       </c>
       <c r="E171">
-        <v>67516.25892453657</v>
+        <v>26949.29844649386</v>
       </c>
       <c r="F171">
-        <v>1504.775854717584</v>
+        <v>1827.57879358404</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>455.5</v>
+        <v>509.1</v>
       </c>
       <c r="B172">
-        <v>441040.8192670327</v>
+        <v>194263.9615571595</v>
       </c>
       <c r="C172">
-        <v>14164.11143223606</v>
+        <v>6046.544689658338</v>
       </c>
       <c r="D172">
-        <v>120762.0160149436</v>
+        <v>61058.54709765757</v>
       </c>
       <c r="E172">
-        <v>63358.49948863422</v>
+        <v>25463.17168019147</v>
       </c>
       <c r="F172">
-        <v>1268.339679373948</v>
+        <v>1941.038744499712</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>458.1</v>
+        <v>511.4</v>
       </c>
       <c r="B173">
-        <v>409761.6293196196</v>
+        <v>164865.8527354998</v>
       </c>
       <c r="C173">
-        <v>13855.82608337904</v>
+        <v>7624.136050806461</v>
       </c>
       <c r="D173">
-        <v>107991.1879277069</v>
+        <v>61868.64917072505</v>
       </c>
       <c r="E173">
-        <v>62146.24969152722</v>
+        <v>22737.04491388907</v>
       </c>
       <c r="F173">
-        <v>1264.977046376785</v>
+        <v>1714.498695415381</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>460.4</v>
+        <v>513.9</v>
       </c>
       <c r="B174">
-        <v>395091.576673831</v>
+        <v>159376.6040163046</v>
       </c>
       <c r="C174">
-        <v>14712.34289015933</v>
+        <v>7578.039704228308</v>
       </c>
       <c r="D174">
-        <v>100397.7630813051</v>
+        <v>61976.15142405927</v>
       </c>
       <c r="E174">
-        <v>56798.49025562488</v>
+        <v>20479.08103747343</v>
       </c>
       <c r="F174">
-        <v>798.5408710331467</v>
+        <v>1851.73777249763</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>462.7</v>
+        <v>516.2</v>
       </c>
       <c r="B175">
-        <v>372321.5240280424</v>
+        <v>149378.495194645</v>
       </c>
       <c r="C175">
-        <v>15098.85969693965</v>
+        <v>6705.631065376416</v>
       </c>
       <c r="D175">
-        <v>95434.33823490338</v>
+        <v>59466.25349712676</v>
       </c>
       <c r="E175">
-        <v>56010.73081972254</v>
+        <v>21312.95427117104</v>
       </c>
       <c r="F175">
-        <v>1772.104695689504</v>
+        <v>1365.197723413299</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>464.9</v>
+        <v>518.5</v>
       </c>
       <c r="B176">
-        <v>345154.5171494622</v>
+        <v>135380.3863729854</v>
       </c>
       <c r="C176">
-        <v>12320.3105555991</v>
+        <v>5753.22242652451</v>
       </c>
       <c r="D176">
-        <v>86056.71446878</v>
+        <v>60616.35557019424</v>
       </c>
       <c r="E176">
-        <v>52701.13483755507</v>
+        <v>19976.82750486864</v>
       </c>
       <c r="F176">
-        <v>1274.64400623037</v>
+        <v>1888.657674328968</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>467.2</v>
+        <v>521.1</v>
       </c>
       <c r="B177">
-        <v>337384.4645036736</v>
+        <v>139595.5677050223</v>
       </c>
       <c r="C177">
-        <v>16376.82736237938</v>
+        <v>9435.282226083247</v>
       </c>
       <c r="D177">
-        <v>84673.28962237824</v>
+        <v>70952.5579136618</v>
       </c>
       <c r="E177">
-        <v>50583.37540165273</v>
+        <v>19692.94507339637</v>
       </c>
       <c r="F177">
-        <v>1208.207830886728</v>
+        <v>2017.786314494506</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>469.5</v>
+        <v>523.7</v>
       </c>
       <c r="B178">
-        <v>326314.411857885</v>
+        <v>131710.7490370593</v>
       </c>
       <c r="C178">
-        <v>11133.3441691597</v>
+        <v>10637.34202564199</v>
       </c>
       <c r="D178">
-        <v>77909.86477597653</v>
+        <v>76218.76025712941</v>
       </c>
       <c r="E178">
-        <v>49625.61596575038</v>
+        <v>18479.0626419241</v>
       </c>
       <c r="F178">
-        <v>1641.771655543085</v>
+        <v>2046.914954660044</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>472.1</v>
+        <v>525.9</v>
       </c>
       <c r="B179">
-        <v>303835.2219104719</v>
+        <v>122208.2101641674</v>
       </c>
       <c r="C179">
-        <v>11945.05882030265</v>
+        <v>11166.77724065322</v>
       </c>
       <c r="D179">
-        <v>77329.03668873977</v>
+        <v>55250.16224006351</v>
       </c>
       <c r="E179">
-        <v>47293.36616864338</v>
+        <v>17668.85443067833</v>
       </c>
       <c r="F179">
-        <v>1178.409022545922</v>
+        <v>2048.485342492424</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>474.3</v>
+        <v>528.5</v>
       </c>
       <c r="B180">
-        <v>307668.2150318915</v>
+        <v>116223.3914962043</v>
       </c>
       <c r="C180">
-        <v>11846.50967896206</v>
+        <v>10598.83704021195</v>
       </c>
       <c r="D180">
-        <v>74551.41292261639</v>
+        <v>57036.3645835311</v>
       </c>
       <c r="E180">
-        <v>50353.77018647593</v>
+        <v>16154.97199920606</v>
       </c>
       <c r="F180">
-        <v>1010.948333086788</v>
+        <v>1807.613982657962</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>476.6</v>
+        <v>531.1</v>
       </c>
       <c r="B181">
-        <v>284098.1623861029</v>
+        <v>110638.5728282413</v>
       </c>
       <c r="C181">
-        <v>13653.02648574238</v>
+        <v>9510.896839770641</v>
       </c>
       <c r="D181">
-        <v>69667.98807621465</v>
+        <v>52912.56692699867</v>
       </c>
       <c r="E181">
-        <v>44036.01075057357</v>
+        <v>12551.08956773379</v>
       </c>
       <c r="F181">
-        <v>1234.512157743146</v>
+        <v>1776.7426228235</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>478.9</v>
+        <v>533.4</v>
       </c>
       <c r="B182">
-        <v>280128.1097403144</v>
+        <v>98640.46400658172</v>
       </c>
       <c r="C182">
-        <v>13169.54329252271</v>
+        <v>7678.488200918786</v>
       </c>
       <c r="D182">
-        <v>64924.56322981291</v>
+        <v>53952.66900006615</v>
       </c>
       <c r="E182">
-        <v>42858.25131467124</v>
+        <v>12964.9628014314</v>
       </c>
       <c r="F182">
-        <v>1418.075982399507</v>
+        <v>1730.202573739169</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>481.1</v>
+        <v>535.7</v>
       </c>
       <c r="B183">
-        <v>275361.102861734</v>
+        <v>92242.35518492211</v>
       </c>
       <c r="C183">
-        <v>14540.99415118212</v>
+        <v>5536.079562066865</v>
       </c>
       <c r="D183">
-        <v>66206.93946368954</v>
+        <v>51362.77107313363</v>
       </c>
       <c r="E183">
-        <v>44248.65533250377</v>
+        <v>11528.836035129</v>
       </c>
       <c r="F183">
-        <v>1200.615292940372</v>
+        <v>1093.662524654841</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>483.5</v>
+        <v>537.9</v>
       </c>
       <c r="B184">
-        <v>259188.0044487373</v>
+        <v>79739.81631203023</v>
       </c>
       <c r="C184">
-        <v>12902.57690608332</v>
+        <v>6005.514777078097</v>
       </c>
       <c r="D184">
-        <v>61687.71353700945</v>
+        <v>51854.17305606775</v>
       </c>
       <c r="E184">
-        <v>38662.73244286654</v>
+        <v>11538.62782388323</v>
       </c>
       <c r="F184">
-        <v>815.203631712222</v>
+        <v>1865.232912487218</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>486</v>
+        <v>540.2</v>
       </c>
       <c r="B185">
-        <v>232011.8602685324</v>
+        <v>90441.70749037062</v>
       </c>
       <c r="C185">
-        <v>10229.22560910542</v>
+        <v>5603.106138226234</v>
       </c>
       <c r="D185">
-        <v>64452.68653005106</v>
+        <v>46744.27512913521</v>
       </c>
       <c r="E185">
-        <v>36758.64609949443</v>
+        <v>10762.50105758084</v>
       </c>
       <c r="F185">
-        <v>1490.816484599563</v>
+        <v>2318.692863402886</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>488</v>
+        <v>542.4</v>
       </c>
       <c r="B186">
-        <v>231250.9449243683</v>
+        <v>85139.16861747886</v>
       </c>
       <c r="C186">
-        <v>11250.54457152305</v>
+        <v>7082.541353237459</v>
       </c>
       <c r="D186">
-        <v>57046.66492448434</v>
+        <v>47345.67711206933</v>
       </c>
       <c r="E186">
-        <v>35515.37702479673</v>
+        <v>10522.29284633507</v>
       </c>
       <c r="F186">
-        <v>891.3067669094416</v>
+        <v>1500.263251235267</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>490.6</v>
+        <v>545</v>
       </c>
       <c r="B187">
-        <v>214471.7549769552</v>
+        <v>76454.34994951577</v>
       </c>
       <c r="C187">
-        <v>11312.25922266602</v>
+        <v>11144.6011527962</v>
       </c>
       <c r="D187">
-        <v>52975.8368372476</v>
+        <v>51481.87945553689</v>
       </c>
       <c r="E187">
-        <v>34233.12722768974</v>
+        <v>10688.41041486281</v>
       </c>
       <c r="F187">
-        <v>927.9441339122823</v>
+        <v>2609.391891400805</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>492.8</v>
+        <v>547.2</v>
       </c>
       <c r="B188">
-        <v>212404.7480983748</v>
+        <v>77351.81107662391</v>
       </c>
       <c r="C188">
-        <v>8933.71008132544</v>
+        <v>3254.036367807421</v>
       </c>
       <c r="D188">
-        <v>52938.21307112421</v>
+        <v>46813.28143847104</v>
       </c>
       <c r="E188">
-        <v>33673.53124552228</v>
+        <v>8428.202203617035</v>
       </c>
       <c r="F188">
-        <v>920.4834444531443</v>
+        <v>2730.962279233181</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>495.1</v>
+        <v>549.5</v>
       </c>
       <c r="B189">
-        <v>203334.6954525863</v>
+        <v>68553.70225496429</v>
       </c>
       <c r="C189">
-        <v>7210.226888105757</v>
+        <v>611.6277289555364</v>
       </c>
       <c r="D189">
-        <v>47674.78822472246</v>
+        <v>54683.3835115385</v>
       </c>
       <c r="E189">
-        <v>30835.77180961994</v>
+        <v>9952.075437314643</v>
       </c>
       <c r="F189">
-        <v>564.0472691095019</v>
+        <v>2054.42223014885</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>497</v>
+        <v>552.1</v>
       </c>
       <c r="B190">
-        <v>204676.8258756306</v>
+        <v>74768.8835870013</v>
       </c>
       <c r="C190">
-        <v>9776.479902402516</v>
+        <v>4433.687528514252</v>
       </c>
       <c r="D190">
-        <v>47984.56769943408</v>
+        <v>46989.58585500608</v>
       </c>
       <c r="E190">
-        <v>32080.66618865714</v>
+        <v>9788.193005842379</v>
       </c>
       <c r="F190">
-        <v>963.5130373038883</v>
+        <v>2313.550870314388</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>500</v>
+        <v>554.4</v>
       </c>
       <c r="B191">
-        <v>187585.4528593846</v>
+        <v>63670.77476534169</v>
       </c>
       <c r="C191">
-        <v>8638.458346029027</v>
+        <v>3631.278889662368</v>
       </c>
       <c r="D191">
-        <v>50160.53529108399</v>
+        <v>41599.68792807356</v>
       </c>
       <c r="E191">
-        <v>28445.76257661061</v>
+        <v>8532.066239539985</v>
       </c>
       <c r="F191">
-        <v>1054.2484607687</v>
+        <v>1967.010821230057</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>502.3</v>
+        <v>556.7</v>
       </c>
       <c r="B192">
-        <v>169915.4002135961</v>
+        <v>72572.66594368196</v>
       </c>
       <c r="C192">
-        <v>10194.97515280935</v>
+        <v>8308.870250810476</v>
       </c>
       <c r="D192">
-        <v>47817.11044468227</v>
+        <v>47029.79000114104</v>
       </c>
       <c r="E192">
-        <v>29528.00314070825</v>
+        <v>6425.939473237578</v>
       </c>
       <c r="F192">
-        <v>997.8122854250578</v>
+        <v>1410.470772145733</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>504.5</v>
+        <v>558.9</v>
       </c>
       <c r="B193">
-        <v>172248.3933350157</v>
+        <v>51570.12707079019</v>
       </c>
       <c r="C193">
-        <v>9116.42601146876</v>
+        <v>5838.305465821708</v>
       </c>
       <c r="D193">
-        <v>41999.48667855887</v>
+        <v>48491.19198407514</v>
       </c>
       <c r="E193">
-        <v>25108.4071585408</v>
+        <v>8555.731261991823</v>
       </c>
       <c r="F193">
-        <v>1220.351595965931</v>
+        <v>2342.041159978109</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>506.8</v>
+        <v>561.2</v>
       </c>
       <c r="B194">
-        <v>163978.3406892271</v>
+        <v>63472.01824913057</v>
       </c>
       <c r="C194">
-        <v>9782.942818249081</v>
+        <v>2785.896826969816</v>
       </c>
       <c r="D194">
-        <v>40596.06183215712</v>
+        <v>46601.29405714262</v>
       </c>
       <c r="E194">
-        <v>26040.64772263844</v>
+        <v>8299.604495689427</v>
       </c>
       <c r="F194">
-        <v>983.9154206222884</v>
+        <v>1925.501110893778</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>509.1</v>
+        <v>563.4</v>
       </c>
       <c r="B195">
-        <v>169008.2880434385</v>
+        <v>54769.47937623871</v>
       </c>
       <c r="C195">
-        <v>7449.459625029369</v>
+        <v>1635.332041981041</v>
       </c>
       <c r="D195">
-        <v>37392.63698575542</v>
+        <v>42762.69604007674</v>
       </c>
       <c r="E195">
-        <v>24502.8882867361</v>
+        <v>7709.396284443658</v>
       </c>
       <c r="F195">
-        <v>1077.479245278646</v>
+        <v>1627.071498726154</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>511.4</v>
+        <v>566</v>
       </c>
       <c r="B196">
-        <v>139438.23539765</v>
+        <v>55984.66070827574</v>
       </c>
       <c r="C196">
-        <v>8955.976431809693</v>
+        <v>13537.39184153976</v>
       </c>
       <c r="D196">
-        <v>37869.21213935371</v>
+        <v>50938.89838354432</v>
       </c>
       <c r="E196">
-        <v>21725.12885083377</v>
+        <v>9085.51385297138</v>
       </c>
       <c r="F196">
-        <v>831.0430699349999</v>
+        <v>1946.200138891692</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>513.9</v>
+        <v>568.3</v>
       </c>
       <c r="B197">
-        <v>133762.0912174451</v>
+        <v>63286.5518866161</v>
       </c>
       <c r="C197">
-        <v>8832.625134831764</v>
+        <v>9004.983202687901</v>
       </c>
       <c r="D197">
-        <v>37614.18513239529</v>
+        <v>46789.00045661182</v>
       </c>
       <c r="E197">
-        <v>19411.04250746164</v>
+        <v>8209.387086669001</v>
       </c>
       <c r="F197">
-        <v>946.6559228223414</v>
+        <v>2059.660089807354</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>516.2</v>
+        <v>570.5</v>
       </c>
       <c r="B198">
-        <v>123592.0385716565</v>
+        <v>49384.01301372424</v>
       </c>
       <c r="C198">
-        <v>7889.141941612081</v>
+        <v>3584.418417699118</v>
       </c>
       <c r="D198">
-        <v>34770.76028599354</v>
+        <v>45960.40243954592</v>
       </c>
       <c r="E198">
-        <v>20193.2830715593</v>
+        <v>5639.178875423231</v>
       </c>
       <c r="F198">
-        <v>440.219747478699</v>
+        <v>2481.230477639738</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>518.5</v>
+        <v>572.8</v>
       </c>
       <c r="B199">
-        <v>109421.9859258679</v>
+        <v>57885.90419206463</v>
       </c>
       <c r="C199">
-        <v>6865.658748392401</v>
+        <v>6372.009778847212</v>
       </c>
       <c r="D199">
-        <v>35587.33543959183</v>
+        <v>47550.50451261339</v>
       </c>
       <c r="E199">
-        <v>18805.52363565696</v>
+        <v>6353.052109120837</v>
       </c>
       <c r="F199">
-        <v>943.7835721350602</v>
+        <v>2134.690428555406</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>521.1</v>
+        <v>575.1</v>
       </c>
       <c r="B200">
-        <v>113442.7959784548</v>
+        <v>63187.79537040502</v>
       </c>
       <c r="C200">
-        <v>10467.37339953535</v>
+        <v>8999.60113999535</v>
       </c>
       <c r="D200">
-        <v>45546.50735235506</v>
+        <v>47550.60658568086</v>
       </c>
       <c r="E200">
-        <v>18463.27383854996</v>
+        <v>9316.925342818442</v>
       </c>
       <c r="F200">
-        <v>1050.420939137904</v>
+        <v>2468.150379471075</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>523.7</v>
+        <v>577.6</v>
       </c>
       <c r="B201">
-        <v>105363.6060310416</v>
+        <v>55598.54665120978</v>
       </c>
       <c r="C201">
-        <v>11589.08805067829</v>
+        <v>9243.504793417167</v>
       </c>
       <c r="D201">
-        <v>50435.67926511832</v>
+        <v>49668.10883901507</v>
       </c>
       <c r="E201">
-        <v>17191.02404144296</v>
+        <v>6588.961466402789</v>
       </c>
       <c r="F201">
-        <v>1057.058306140741</v>
+        <v>2515.389456553328</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>525.9</v>
+        <v>579.9</v>
       </c>
       <c r="B202">
-        <v>95696.59915246133</v>
+        <v>54700.43782955015</v>
       </c>
       <c r="C202">
-        <v>12050.53890933774</v>
+        <v>7271.096154565319</v>
       </c>
       <c r="D202">
-        <v>29148.05549899496</v>
+        <v>46718.21091208258</v>
       </c>
       <c r="E202">
-        <v>16331.42805927551</v>
+        <v>7502.834700100396</v>
       </c>
       <c r="F202">
-        <v>1039.5976166816</v>
+        <v>1898.84940746899</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>528.5</v>
+        <v>581.8</v>
       </c>
       <c r="B203">
-        <v>89517.40920504817</v>
+        <v>55184.60880296177</v>
       </c>
       <c r="C203">
-        <v>11402.25356048069</v>
+        <v>5936.062931165885</v>
       </c>
       <c r="D203">
-        <v>30557.22741175822</v>
+        <v>46663.51262461655</v>
       </c>
       <c r="E203">
-        <v>14759.17826216851</v>
+        <v>6930.38215402451</v>
       </c>
       <c r="F203">
-        <v>776.2349836844442</v>
+        <v>2424.751106051497</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>531.1</v>
+        <v>584.7</v>
       </c>
       <c r="B204">
-        <v>83738.21925763501</v>
+        <v>55413.08028869532</v>
       </c>
       <c r="C204">
-        <v>10233.96821162364</v>
+        <v>6152.591169135274</v>
       </c>
       <c r="D204">
-        <v>26056.39932452146</v>
+        <v>44635.81523848424</v>
       </c>
       <c r="E204">
-        <v>11096.92846506151</v>
+        <v>4828.744057382347</v>
       </c>
       <c r="F204">
-        <v>722.8723506872848</v>
+        <v>2359.548435466912</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>533.4</v>
+        <v>587</v>
       </c>
       <c r="B205">
-        <v>71568.16661184643</v>
+        <v>50914.97146703569</v>
       </c>
       <c r="C205">
-        <v>8330.485018403953</v>
+        <v>2930.182530283368</v>
       </c>
       <c r="D205">
-        <v>26762.97447811975</v>
+        <v>46285.91731155172</v>
       </c>
       <c r="E205">
-        <v>11459.16902915915</v>
+        <v>5842.617291079968</v>
       </c>
       <c r="F205">
-        <v>656.4361753436424</v>
+        <v>2683.008386382573</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>535.7</v>
+        <v>589.3</v>
       </c>
       <c r="B206">
-        <v>64998.11396605788</v>
+        <v>50516.86264537607</v>
       </c>
       <c r="C206">
-        <v>6117.00182518427</v>
+        <v>4067.773891431454</v>
       </c>
       <c r="D206">
-        <v>23839.549631718</v>
+        <v>49376.0193846192</v>
       </c>
       <c r="E206">
-        <v>9971.409593256814</v>
+        <v>4516.490524777575</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>2736.468337298242</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>537.9</v>
+        <v>591.5</v>
       </c>
       <c r="B207">
-        <v>52331.10708747747</v>
+        <v>44914.3237724842</v>
       </c>
       <c r="C207">
-        <v>6518.452683843723</v>
+        <v>4067.20910644273</v>
       </c>
       <c r="D207">
-        <v>24011.92586559463</v>
+        <v>47227.42136755332</v>
       </c>
       <c r="E207">
-        <v>9931.813611089348</v>
+        <v>7646.282313531804</v>
       </c>
       <c r="F207">
-        <v>752.5393105408657</v>
+        <v>2468.038725130626</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1">
-        <v>540.2</v>
+        <v>593.8</v>
       </c>
       <c r="B208">
-        <v>62861.05444168892</v>
+        <v>45116.21495082458</v>
       </c>
       <c r="C208">
-        <v>6044.969490624004</v>
+        <v>4074.800467590823</v>
       </c>
       <c r="D208">
-        <v>18568.50101919288</v>
+        <v>46777.5234406208</v>
       </c>
       <c r="E208">
-        <v>9104.054175187008</v>
+        <v>5580.155547229411</v>
       </c>
       <c r="F208">
-        <v>1186.103135197227</v>
+        <v>2451.498676046294</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1">
-        <v>542.4</v>
+        <v>596</v>
       </c>
       <c r="B209">
-        <v>57394.04756310862</v>
+        <v>51013.67607793283</v>
       </c>
       <c r="C209">
-        <v>7456.420349283428</v>
+        <v>7084.23568260204</v>
       </c>
       <c r="D209">
-        <v>18850.87725306949</v>
+        <v>48218.9254235549</v>
       </c>
       <c r="E209">
-        <v>8814.458193019542</v>
+        <v>6149.94733598364</v>
       </c>
       <c r="F209">
-        <v>348.6424457380854</v>
+        <v>2373.069063878671</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1">
-        <v>545</v>
+        <v>598.6</v>
       </c>
       <c r="B210">
-        <v>48514.85761569545</v>
+        <v>39328.85740996974</v>
       </c>
       <c r="C210">
-        <v>11438.1350004264</v>
+        <v>2616.295482160778</v>
       </c>
       <c r="D210">
-        <v>22610.04916583275</v>
+        <v>48075.12776702251</v>
       </c>
       <c r="E210">
-        <v>8922.208395912541</v>
+        <v>3756.064904511362</v>
       </c>
       <c r="F210">
-        <v>1435.279812740926</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211" s="1">
-        <v>547.2</v>
-      </c>
-      <c r="B211">
-        <v>49247.85073711506</v>
-      </c>
-      <c r="C211">
-        <v>3479.585859085812</v>
-      </c>
-      <c r="D211">
-        <v>17622.42539970934</v>
-      </c>
-      <c r="E211">
-        <v>6612.612413745088</v>
-      </c>
-      <c r="F211">
-        <v>1537.819123281792</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="1">
-        <v>549.5</v>
-      </c>
-      <c r="B212">
-        <v>40277.79809132649</v>
-      </c>
-      <c r="C212">
-        <v>766.1026658661358</v>
-      </c>
-      <c r="D212">
-        <v>25159.00055330761</v>
-      </c>
-      <c r="E212">
-        <v>8084.852977842749</v>
-      </c>
-      <c r="F212">
-        <v>841.3829479381457</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="1">
-        <v>552.1</v>
-      </c>
-      <c r="B213">
-        <v>46298.60814391333</v>
-      </c>
-      <c r="C213">
-        <v>4507.817317009081</v>
-      </c>
-      <c r="D213">
-        <v>17088.17246607087</v>
-      </c>
-      <c r="E213">
-        <v>7862.603180735749</v>
-      </c>
-      <c r="F213">
-        <v>1078.02031494099</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="1">
-        <v>554.4</v>
-      </c>
-      <c r="B214">
-        <v>35028.55549812489</v>
-      </c>
-      <c r="C214">
-        <v>3634.334123789406</v>
-      </c>
-      <c r="D214">
-        <v>11364.74761966916</v>
-      </c>
-      <c r="E214">
-        <v>6554.84374483341</v>
-      </c>
-      <c r="F214">
-        <v>711.5841395973512</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="1">
-        <v>556.7</v>
-      </c>
-      <c r="B215">
-        <v>43758.50285233621</v>
-      </c>
-      <c r="C215">
-        <v>8240.850930569723</v>
-      </c>
-      <c r="D215">
-        <v>16461.32277326741</v>
-      </c>
-      <c r="E215">
-        <v>4397.084308931055</v>
-      </c>
-      <c r="F215">
-        <v>135.1479642537088</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="1">
-        <v>558.9</v>
-      </c>
-      <c r="B216">
-        <v>22591.49597375591</v>
-      </c>
-      <c r="C216">
-        <v>5702.301789229139</v>
-      </c>
-      <c r="D216">
-        <v>17603.69900714401</v>
-      </c>
-      <c r="E216">
-        <v>6477.488326763605</v>
-      </c>
-      <c r="F216">
-        <v>1047.687274794574</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="1">
-        <v>561.2</v>
-      </c>
-      <c r="B217">
-        <v>34321.44332796735</v>
-      </c>
-      <c r="C217">
-        <v>2578.818596009427</v>
-      </c>
-      <c r="D217">
-        <v>15380.27416074227</v>
-      </c>
-      <c r="E217">
-        <v>6169.72889086125</v>
-      </c>
-      <c r="F217">
-        <v>611.2510994509285</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="1">
-        <v>563.4</v>
-      </c>
-      <c r="B218">
-        <v>25454.43644938695</v>
-      </c>
-      <c r="C218">
-        <v>1360.269454668873</v>
-      </c>
-      <c r="D218">
-        <v>11222.6503946189</v>
-      </c>
-      <c r="E218">
-        <v>5530.132908693799</v>
-      </c>
-      <c r="F218">
-        <v>293.7904099917941</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="1">
-        <v>566</v>
-      </c>
-      <c r="B219">
-        <v>26475.24650197377</v>
-      </c>
-      <c r="C219">
-        <v>13181.98410581182</v>
-      </c>
-      <c r="D219">
-        <v>19021.82230738216</v>
-      </c>
-      <c r="E219">
-        <v>6847.883111586798</v>
-      </c>
-      <c r="F219">
-        <v>590.4277769946311</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="1">
-        <v>568.3</v>
-      </c>
-      <c r="B220">
-        <v>33605.19385618533</v>
-      </c>
-      <c r="C220">
-        <v>8578.500912592142</v>
-      </c>
-      <c r="D220">
-        <v>14538.39746098042</v>
-      </c>
-      <c r="E220">
-        <v>5920.123675684459</v>
-      </c>
-      <c r="F220">
-        <v>683.9916016509851</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="1">
-        <v>570.5</v>
-      </c>
-      <c r="B221">
-        <v>19538.18697760493</v>
-      </c>
-      <c r="C221">
-        <v>3089.951771251581</v>
-      </c>
-      <c r="D221">
-        <v>13390.77369485705</v>
-      </c>
-      <c r="E221">
-        <v>3300.527693516991</v>
-      </c>
-      <c r="F221">
-        <v>1086.530912191854</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="1">
-        <v>572.8</v>
-      </c>
-      <c r="B222">
-        <v>27868.13433181637</v>
-      </c>
-      <c r="C222">
-        <v>5806.468578031905</v>
-      </c>
-      <c r="D222">
-        <v>14647.34884845531</v>
-      </c>
-      <c r="E222">
-        <v>3962.768257614653</v>
-      </c>
-      <c r="F222">
-        <v>720.0947368482084</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="1">
-        <v>575.1</v>
-      </c>
-      <c r="B223">
-        <v>32998.08168602781</v>
-      </c>
-      <c r="C223">
-        <v>8362.985384812193</v>
-      </c>
-      <c r="D223">
-        <v>14313.92400205356</v>
-      </c>
-      <c r="E223">
-        <v>6875.008821712312</v>
-      </c>
-      <c r="F223">
-        <v>1033.65856150457</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="1">
-        <v>577.6</v>
-      </c>
-      <c r="B224">
-        <v>25221.93750582292</v>
-      </c>
-      <c r="C224">
-        <v>8529.63408783426</v>
-      </c>
-      <c r="D224">
-        <v>16068.89699509517</v>
-      </c>
-      <c r="E224">
-        <v>4090.922478340184</v>
-      </c>
-      <c r="F224">
-        <v>1059.271414391915</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="1">
-        <v>579.9</v>
-      </c>
-      <c r="B225">
-        <v>24151.88486003436</v>
-      </c>
-      <c r="C225">
-        <v>6486.150894614584</v>
-      </c>
-      <c r="D225">
-        <v>12785.47214869343</v>
-      </c>
-      <c r="E225">
-        <v>4953.163042437845</v>
-      </c>
-      <c r="F225">
-        <v>422.835239048276</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="1">
-        <v>581.8</v>
-      </c>
-      <c r="B226">
-        <v>24494.01528307857</v>
-      </c>
-      <c r="C226">
-        <v>5092.403908911372</v>
-      </c>
-      <c r="D226">
-        <v>12455.25162340505</v>
-      </c>
-      <c r="E226">
-        <v>4338.05742147504</v>
-      </c>
-      <c r="F226">
-        <v>932.3010072426587</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="1">
-        <v>584.7</v>
-      </c>
-      <c r="B227">
-        <v>24505.6880340408</v>
-      </c>
-      <c r="C227">
-        <v>5219.316404416946</v>
-      </c>
-      <c r="D227">
-        <v>10007.02029533329</v>
-      </c>
-      <c r="E227">
-        <v>2171.317263163379</v>
-      </c>
-      <c r="F227">
-        <v>842.0119165919823</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="1">
-        <v>587</v>
-      </c>
-      <c r="B228">
-        <v>19835.63538825222</v>
-      </c>
-      <c r="C228">
-        <v>1925.833211197263</v>
-      </c>
-      <c r="D228">
-        <v>11323.59544893158</v>
-      </c>
-      <c r="E228">
-        <v>3133.55782726104</v>
-      </c>
-      <c r="F228">
-        <v>1145.57574124834</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229" s="1">
-        <v>589.3</v>
-      </c>
-      <c r="B229">
-        <v>19265.58274246365</v>
-      </c>
-      <c r="C229">
-        <v>2992.350017977587</v>
-      </c>
-      <c r="D229">
-        <v>14080.17060252984</v>
-      </c>
-      <c r="E229">
-        <v>1755.798391358701</v>
-      </c>
-      <c r="F229">
-        <v>1179.139565904694</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230" s="1">
-        <v>591.5</v>
-      </c>
-      <c r="B230">
-        <v>13498.57586388337</v>
-      </c>
-      <c r="C230">
-        <v>2923.800876637026</v>
-      </c>
-      <c r="D230">
-        <v>11612.54683640643</v>
-      </c>
-      <c r="E230">
-        <v>4836.202409191248</v>
-      </c>
-      <c r="F230">
-        <v>891.6788764455632</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231" s="1">
-        <v>593.8</v>
-      </c>
-      <c r="B231">
-        <v>13528.52321809481</v>
-      </c>
-      <c r="C231">
-        <v>2860.317683417321</v>
-      </c>
-      <c r="D231">
-        <v>10829.12199000473</v>
-      </c>
-      <c r="E231">
-        <v>2718.442973288895</v>
-      </c>
-      <c r="F231">
-        <v>855.2427011019172</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="A232" s="1">
-        <v>596</v>
-      </c>
-      <c r="B232">
-        <v>19261.51633951441</v>
-      </c>
-      <c r="C232">
-        <v>5801.768542076738</v>
-      </c>
-      <c r="D232">
-        <v>11951.49822388132</v>
-      </c>
-      <c r="E232">
-        <v>3238.846991121442</v>
-      </c>
-      <c r="F232">
-        <v>757.7820116427829</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
-      <c r="A233" s="1">
-        <v>598.6</v>
-      </c>
-      <c r="B233">
-        <v>7382.326392101248</v>
-      </c>
-      <c r="C233">
-        <v>1253.483193219712</v>
-      </c>
-      <c r="D233">
-        <v>11430.67013664458</v>
-      </c>
-      <c r="E233">
-        <v>786.5971940144407</v>
-      </c>
-      <c r="F233">
-        <v>1144.419378645624</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
-      <c r="A234" s="1">
-        <v>600.9</v>
-      </c>
-      <c r="B234">
-        <v>8512.273746312676</v>
-      </c>
-      <c r="C234">
-        <v>0</v>
-      </c>
-      <c r="D234">
-        <v>10187.24529024284</v>
-      </c>
-      <c r="E234">
-        <v>468.8377581120874</v>
-      </c>
-      <c r="F234">
-        <v>1747.983203301974</v>
+        <v>2782.197704044209</v>
       </c>
     </row>
   </sheetData>
